--- a/files/treinos/Jacks Mello Consultoria Lucas C (1).xlsx
+++ b/files/treinos/Jacks Mello Consultoria Lucas C (1).xlsx
@@ -1,42 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26026"/>
   <workbookPr codeName="EstaPasta_de_trabalho" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukspc\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\fit\files\treinos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A52ABBB-A333-47D1-86CD-D2CB40E2C7F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D5B45BA-7559-4B03-A1B0-44AD1306FE1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1935" yWindow="0" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DADOS" sheetId="6" r:id="rId1"/>
     <sheet name="TREINO" sheetId="1" r:id="rId2"/>
     <sheet name="REFEIÇÃO" sheetId="4" r:id="rId3"/>
     <sheet name="ALIMENTOS" sheetId="7" r:id="rId4"/>
+    <sheet name="ALIMENTOSARRAY" sheetId="8" r:id="rId5"/>
   </sheets>
   <definedNames>
     <definedName name="Alimentos">ALIMENTOS!$A:$E</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">TREINO!$B$1:$L$52</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="450" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="976" uniqueCount="489">
   <si>
     <t>EXERCÍCIO</t>
   </si>
@@ -795,6 +787,714 @@
   </si>
   <si>
     <t>gord</t>
+  </si>
+  <si>
+    <t>0.012</t>
+  </si>
+  <si>
+    <t>0.06</t>
+  </si>
+  <si>
+    <t>0.084</t>
+  </si>
+  <si>
+    <t>0.024</t>
+  </si>
+  <si>
+    <t>0.108</t>
+  </si>
+  <si>
+    <t>0.001</t>
+  </si>
+  <si>
+    <t>0.027</t>
+  </si>
+  <si>
+    <t>0.094</t>
+  </si>
+  <si>
+    <t>0.007</t>
+  </si>
+  <si>
+    <t>0.011</t>
+  </si>
+  <si>
+    <t>0.052</t>
+  </si>
+  <si>
+    <t>0.008</t>
+  </si>
+  <si>
+    <t>0.015</t>
+  </si>
+  <si>
+    <t>0.026</t>
+  </si>
+  <si>
+    <t>0.002</t>
+  </si>
+  <si>
+    <t>0.034</t>
+  </si>
+  <si>
+    <t>0.188</t>
+  </si>
+  <si>
+    <t>0.037</t>
+  </si>
+  <si>
+    <t>0.107</t>
+  </si>
+  <si>
+    <t>0.167</t>
+  </si>
+  <si>
+    <t>0.199</t>
+  </si>
+  <si>
+    <t>0.267</t>
+  </si>
+  <si>
+    <t>0.109</t>
+  </si>
+  <si>
+    <t>0.273</t>
+  </si>
+  <si>
+    <t>0.223</t>
+  </si>
+  <si>
+    <t>0.259</t>
+  </si>
+  <si>
+    <t>0.473</t>
+  </si>
+  <si>
+    <t>0.248</t>
+  </si>
+  <si>
+    <t>0.164</t>
+  </si>
+  <si>
+    <t>0.54</t>
+  </si>
+  <si>
+    <t>0.122</t>
+  </si>
+  <si>
+    <t>0.101</t>
+  </si>
+  <si>
+    <t>0.071</t>
+  </si>
+  <si>
+    <t>0.058</t>
+  </si>
+  <si>
+    <t>0.226</t>
+  </si>
+  <si>
+    <t>0.01</t>
+  </si>
+  <si>
+    <t>0.246</t>
+  </si>
+  <si>
+    <t>0.247</t>
+  </si>
+  <si>
+    <t>0.004</t>
+  </si>
+  <si>
+    <t>0.262</t>
+  </si>
+  <si>
+    <t>0.257</t>
+  </si>
+  <si>
+    <t>0.009</t>
+  </si>
+  <si>
+    <t>0.222</t>
+  </si>
+  <si>
+    <t>0.583</t>
+  </si>
+  <si>
+    <t>0.085</t>
+  </si>
+  <si>
+    <t>0.019</t>
+  </si>
+  <si>
+    <t>0.049</t>
+  </si>
+  <si>
+    <t>0.203</t>
+  </si>
+  <si>
+    <t>0.014</t>
+  </si>
+  <si>
+    <t>0.036</t>
+  </si>
+  <si>
+    <t>0.142</t>
+  </si>
+  <si>
+    <t>0.29</t>
+  </si>
+  <si>
+    <t>0.013</t>
+  </si>
+  <si>
+    <t>0.056</t>
+  </si>
+  <si>
+    <t>0.295</t>
+  </si>
+  <si>
+    <t>0.045</t>
+  </si>
+  <si>
+    <t>0.227</t>
+  </si>
+  <si>
+    <t>0.033</t>
+  </si>
+  <si>
+    <t>0.166</t>
+  </si>
+  <si>
+    <t>0.029</t>
+  </si>
+  <si>
+    <t>0.161</t>
+  </si>
+  <si>
+    <t>0.105</t>
+  </si>
+  <si>
+    <t>0.095</t>
+  </si>
+  <si>
+    <t>0.312</t>
+  </si>
+  <si>
+    <t>0.131</t>
+  </si>
+  <si>
+    <t>0.031</t>
+  </si>
+  <si>
+    <t>0.123</t>
+  </si>
+  <si>
+    <t>0.03</t>
+  </si>
+  <si>
+    <t>0.066</t>
+  </si>
+  <si>
+    <t>0.175</t>
+  </si>
+  <si>
+    <t>0.658</t>
+  </si>
+  <si>
+    <t>0.12</t>
+  </si>
+  <si>
+    <t>0.114</t>
+  </si>
+  <si>
+    <t>0.705</t>
+  </si>
+  <si>
+    <t>0.187</t>
+  </si>
+  <si>
+    <t>0.601</t>
+  </si>
+  <si>
+    <t>0.144</t>
+  </si>
+  <si>
+    <t>0.337</t>
+  </si>
+  <si>
+    <t>0.185</t>
+  </si>
+  <si>
+    <t>0.104</t>
+  </si>
+  <si>
+    <t>0.419</t>
+  </si>
+  <si>
+    <t>0.127</t>
+  </si>
+  <si>
+    <t>0.395</t>
+  </si>
+  <si>
+    <t>0.124</t>
+  </si>
+  <si>
+    <t>0.19</t>
+  </si>
+  <si>
+    <t>0.307</t>
+  </si>
+  <si>
+    <t>0.2</t>
+  </si>
+  <si>
+    <t>0.351</t>
+  </si>
+  <si>
+    <t>0.1</t>
+  </si>
+  <si>
+    <t>0.221</t>
+  </si>
+  <si>
+    <t>0.255</t>
+  </si>
+  <si>
+    <t>0.463</t>
+  </si>
+  <si>
+    <t>0.081</t>
+  </si>
+  <si>
+    <t>0.089</t>
+  </si>
+  <si>
+    <t>0.05</t>
+  </si>
+  <si>
+    <t>0.091</t>
+  </si>
+  <si>
+    <t>0.42</t>
+  </si>
+  <si>
+    <t>0.299</t>
+  </si>
+  <si>
+    <t>0.163</t>
+  </si>
+  <si>
+    <t>0.24</t>
+  </si>
+  <si>
+    <t>0.324</t>
+  </si>
+  <si>
+    <t>0.155</t>
+  </si>
+  <si>
+    <t>0.302</t>
+  </si>
+  <si>
+    <t>0.303</t>
+  </si>
+  <si>
+    <t>0.285</t>
+  </si>
+  <si>
+    <t>0.269</t>
+  </si>
+  <si>
+    <t>0.319</t>
+  </si>
+  <si>
+    <t>0.021</t>
+  </si>
+  <si>
+    <t>0.039</t>
+  </si>
+  <si>
+    <t>0.225</t>
+  </si>
+  <si>
+    <t>0.286</t>
+  </si>
+  <si>
+    <t>0.23</t>
+  </si>
+  <si>
+    <t>0.171</t>
+  </si>
+  <si>
+    <t>0.692</t>
+  </si>
+  <si>
+    <t>0.192</t>
+  </si>
+  <si>
+    <t>0.657</t>
+  </si>
+  <si>
+    <t>0.106</t>
+  </si>
+  <si>
+    <t>0.71</t>
+  </si>
+  <si>
+    <t>0.003</t>
+  </si>
+  <si>
+    <t>0.065</t>
+  </si>
+  <si>
+    <t>0.119</t>
+  </si>
+  <si>
+    <t>0.005</t>
+  </si>
+  <si>
+    <t>0.068</t>
+  </si>
+  <si>
+    <t>0.118</t>
+  </si>
+  <si>
+    <t>0.006</t>
+  </si>
+  <si>
+    <t>0.063</t>
+  </si>
+  <si>
+    <t>0.073</t>
+  </si>
+  <si>
+    <t>0.113</t>
+  </si>
+  <si>
+    <t>0.102</t>
+  </si>
+  <si>
+    <t>0.304</t>
+  </si>
+  <si>
+    <t>0.09</t>
+  </si>
+  <si>
+    <t>0.315</t>
+  </si>
+  <si>
+    <t>0.032</t>
+  </si>
+  <si>
+    <t>0.32</t>
+  </si>
+  <si>
+    <t>0.025</t>
+  </si>
+  <si>
+    <t>0.294</t>
+  </si>
+  <si>
+    <t>0.078</t>
+  </si>
+  <si>
+    <t>0.239</t>
+  </si>
+  <si>
+    <t>0.14</t>
+  </si>
+  <si>
+    <t>0.261</t>
+  </si>
+  <si>
+    <t>0.145</t>
+  </si>
+  <si>
+    <t>0.328</t>
+  </si>
+  <si>
+    <t>0.088</t>
+  </si>
+  <si>
+    <t>0.242</t>
+  </si>
+  <si>
+    <t>0.26</t>
+  </si>
+  <si>
+    <t>0.189</t>
+  </si>
+  <si>
+    <t>0.504</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>0.043</t>
+  </si>
+  <si>
+    <t>0.017</t>
+  </si>
+  <si>
+    <t>0.051</t>
+  </si>
+  <si>
+    <t>0.329</t>
+  </si>
+  <si>
+    <t>0.018</t>
+  </si>
+  <si>
+    <t>0.076</t>
+  </si>
+  <si>
+    <t>0.08</t>
+  </si>
+  <si>
+    <t>0.148</t>
+  </si>
+  <si>
+    <t>0.499</t>
+  </si>
+  <si>
+    <t>0.067</t>
+  </si>
+  <si>
+    <t>0.413</t>
+  </si>
+  <si>
+    <t>0.464</t>
+  </si>
+  <si>
+    <t>0.083</t>
+  </si>
+  <si>
+    <t>0.143</t>
+  </si>
+  <si>
+    <t>0.183</t>
+  </si>
+  <si>
+    <t>0.182</t>
+  </si>
+  <si>
+    <t>0.184</t>
+  </si>
+  <si>
+    <t>0.205</t>
+  </si>
+  <si>
+    <t>0.213</t>
+  </si>
+  <si>
+    <t>0.232</t>
+  </si>
+  <si>
+    <t>0.219</t>
+  </si>
+  <si>
+    <t>0.195</t>
+  </si>
+  <si>
+    <t>0.379</t>
+  </si>
+  <si>
+    <t>0.323</t>
+  </si>
+  <si>
+    <t>0.357</t>
+  </si>
+  <si>
+    <t>0.064</t>
+  </si>
+  <si>
+    <t>0.023</t>
+  </si>
+  <si>
+    <t>0.197</t>
+  </si>
+  <si>
+    <t>0.682</t>
+  </si>
+  <si>
+    <t>0.016</t>
+  </si>
+  <si>
+    <t>0.069</t>
+  </si>
+  <si>
+    <t>0.305</t>
+  </si>
+  <si>
+    <t>0.022</t>
+  </si>
+  <si>
+    <t>0.044</t>
+  </si>
+  <si>
+    <t>0.263</t>
+  </si>
+  <si>
+    <t>0.077</t>
+  </si>
+  <si>
+    <t>0.44</t>
+  </si>
+  <si>
+    <t>0.112</t>
+  </si>
+  <si>
+    <t>0.824</t>
+  </si>
+  <si>
+    <t>0.86</t>
+  </si>
+  <si>
+    <t>0.053</t>
+  </si>
+  <si>
+    <t>0.15</t>
+  </si>
+  <si>
+    <t>0.116</t>
+  </si>
+  <si>
+    <t>0.216</t>
+  </si>
+  <si>
+    <t>0.594</t>
+  </si>
+  <si>
+    <t>0.157</t>
+  </si>
+  <si>
+    <t>0.22</t>
+  </si>
+  <si>
+    <t>0.666</t>
+  </si>
+  <si>
+    <t>0.138</t>
+  </si>
+  <si>
+    <t>0.458</t>
+  </si>
+  <si>
+    <t>0.297</t>
+  </si>
+  <si>
+    <t>0.074</t>
+  </si>
+  <si>
+    <t>0.156</t>
+  </si>
+  <si>
+    <t>0.437</t>
+  </si>
+  <si>
+    <t>0.3</t>
+  </si>
+  <si>
+    <t>5.5</t>
+  </si>
+  <si>
+    <t>0.25</t>
+  </si>
+  <si>
+    <t>0.45</t>
+  </si>
+  <si>
+    <t>0.359</t>
+  </si>
+  <si>
+    <t>0.141</t>
+  </si>
+  <si>
+    <t>0.274</t>
+  </si>
+  <si>
+    <t>0.264</t>
+  </si>
+  <si>
+    <t>0.384</t>
+  </si>
+  <si>
+    <t>0.615</t>
+  </si>
+  <si>
+    <t>0.159</t>
+  </si>
+  <si>
+    <t>0.759</t>
+  </si>
+  <si>
+    <t>0.146</t>
+  </si>
+  <si>
+    <t>0.178</t>
+  </si>
+  <si>
+    <t>0.028</t>
+  </si>
+  <si>
+    <t>0.202</t>
+  </si>
+  <si>
+    <t>0.252</t>
+  </si>
+  <si>
+    <t>0.358</t>
+  </si>
+  <si>
+    <t>0.335</t>
+  </si>
+  <si>
+    <t>0.229</t>
+  </si>
+  <si>
+    <t>0.291</t>
+  </si>
+  <si>
+    <t>0.099</t>
+  </si>
+  <si>
+    <t>0.234</t>
+  </si>
+  <si>
+    <t>0.306</t>
+  </si>
+  <si>
+    <t>0.322</t>
+  </si>
+  <si>
+    <t>0.287</t>
+  </si>
+  <si>
+    <t>0.152</t>
+  </si>
+  <si>
+    <t>0.292</t>
+  </si>
+  <si>
+    <t>0.129</t>
+  </si>
+  <si>
+    <t>0.02</t>
+  </si>
+  <si>
+    <t>0.556</t>
+  </si>
+  <si>
+    <t>0.111</t>
+  </si>
+  <si>
+    <t>0.8</t>
+  </si>
+  <si>
+    <t>Exercicio</t>
   </si>
 </sst>
 </file>
@@ -990,7 +1690,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1047,29 +1747,12 @@
     <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1080,6 +1763,9 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1089,10 +1775,25 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1453,18 +2154,18 @@
       <c r="B2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="22" t="s">
+      <c r="C2" s="23" t="s">
         <v>238</v>
       </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="22"/>
-      <c r="F2" s="22"/>
-      <c r="G2" s="22"/>
-      <c r="H2" s="22"/>
-      <c r="I2" s="22"/>
-      <c r="J2" s="22"/>
-      <c r="K2" s="22"/>
-      <c r="L2" s="22"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
@@ -1619,20 +2320,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="33" t="s">
         <v>249</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="H2" s="23" t="s">
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="H2" s="33" t="s">
         <v>223</v>
       </c>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
+      <c r="I2" s="33"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
     </row>
     <row r="3" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
@@ -1927,20 +2628,20 @@
       <c r="L13" s="7"/>
     </row>
     <row r="16" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="33" t="s">
         <v>219</v>
       </c>
-      <c r="C16" s="23"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="H16" s="23" t="s">
+      <c r="C16" s="33"/>
+      <c r="D16" s="33"/>
+      <c r="E16" s="33"/>
+      <c r="F16" s="33"/>
+      <c r="H16" s="33" t="s">
         <v>247</v>
       </c>
-      <c r="I16" s="23"/>
-      <c r="J16" s="23"/>
-      <c r="K16" s="23"/>
-      <c r="L16" s="23"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="33"/>
+      <c r="K16" s="33"/>
+      <c r="L16" s="33"/>
     </row>
     <row r="17" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
@@ -2247,18 +2948,18 @@
       </c>
     </row>
     <row r="30" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B30" s="23"/>
-      <c r="C30" s="23"/>
-      <c r="D30" s="23"/>
-      <c r="E30" s="23"/>
-      <c r="F30" s="23"/>
-      <c r="H30" s="23" t="s">
+      <c r="B30" s="33"/>
+      <c r="C30" s="33"/>
+      <c r="D30" s="33"/>
+      <c r="E30" s="33"/>
+      <c r="F30" s="33"/>
+      <c r="H30" s="33" t="s">
         <v>210</v>
       </c>
-      <c r="I30" s="23"/>
-      <c r="J30" s="23"/>
-      <c r="K30" s="23"/>
-      <c r="L30" s="23"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="33"/>
+      <c r="K30" s="33"/>
+      <c r="L30" s="33"/>
     </row>
     <row r="31" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
@@ -2529,172 +3230,172 @@
       <c r="L41" s="7"/>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B43" s="36" t="s">
+      <c r="B43" s="24" t="s">
         <v>8</v>
       </c>
-      <c r="C43" s="36"/>
-      <c r="D43" s="36"/>
-      <c r="E43" s="36"/>
-      <c r="F43" s="36"/>
-      <c r="G43" s="36"/>
-      <c r="H43" s="36"/>
-      <c r="I43" s="36"/>
-      <c r="J43" s="36"/>
-      <c r="K43" s="36"/>
-      <c r="L43" s="36"/>
+      <c r="C43" s="24"/>
+      <c r="D43" s="24"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="24"/>
+      <c r="J43" s="24"/>
+      <c r="K43" s="24"/>
+      <c r="L43" s="24"/>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B44" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C44" s="30" t="s">
+      <c r="C44" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="D44" s="31"/>
-      <c r="E44" s="31"/>
-      <c r="F44" s="31"/>
-      <c r="G44" s="31"/>
-      <c r="H44" s="31"/>
-      <c r="I44" s="31"/>
-      <c r="J44" s="31"/>
-      <c r="K44" s="31"/>
-      <c r="L44" s="32"/>
+      <c r="D44" s="26"/>
+      <c r="E44" s="26"/>
+      <c r="F44" s="26"/>
+      <c r="G44" s="26"/>
+      <c r="H44" s="26"/>
+      <c r="I44" s="26"/>
+      <c r="J44" s="26"/>
+      <c r="K44" s="26"/>
+      <c r="L44" s="27"/>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B45" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C45" s="30" t="s">
+      <c r="C45" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="D45" s="31"/>
-      <c r="E45" s="31"/>
-      <c r="F45" s="31"/>
-      <c r="G45" s="31"/>
-      <c r="H45" s="31"/>
-      <c r="I45" s="31"/>
-      <c r="J45" s="31"/>
-      <c r="K45" s="31"/>
-      <c r="L45" s="32"/>
+      <c r="D45" s="26"/>
+      <c r="E45" s="26"/>
+      <c r="F45" s="26"/>
+      <c r="G45" s="26"/>
+      <c r="H45" s="26"/>
+      <c r="I45" s="26"/>
+      <c r="J45" s="26"/>
+      <c r="K45" s="26"/>
+      <c r="L45" s="27"/>
     </row>
     <row r="46" spans="2:12" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C46" s="33" t="s">
+      <c r="C46" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="D46" s="34"/>
-      <c r="E46" s="34"/>
-      <c r="F46" s="34"/>
-      <c r="G46" s="34"/>
-      <c r="H46" s="34"/>
-      <c r="I46" s="34"/>
-      <c r="J46" s="34"/>
-      <c r="K46" s="34"/>
-      <c r="L46" s="35"/>
+      <c r="D46" s="30"/>
+      <c r="E46" s="30"/>
+      <c r="F46" s="30"/>
+      <c r="G46" s="30"/>
+      <c r="H46" s="30"/>
+      <c r="I46" s="30"/>
+      <c r="J46" s="30"/>
+      <c r="K46" s="30"/>
+      <c r="L46" s="31"/>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B47" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C47" s="30" t="s">
+      <c r="C47" s="25" t="s">
         <v>15</v>
       </c>
-      <c r="D47" s="31"/>
-      <c r="E47" s="31"/>
-      <c r="F47" s="31"/>
-      <c r="G47" s="31"/>
-      <c r="H47" s="31"/>
-      <c r="I47" s="31"/>
-      <c r="J47" s="31"/>
-      <c r="K47" s="31"/>
-      <c r="L47" s="32"/>
+      <c r="D47" s="26"/>
+      <c r="E47" s="26"/>
+      <c r="F47" s="26"/>
+      <c r="G47" s="26"/>
+      <c r="H47" s="26"/>
+      <c r="I47" s="26"/>
+      <c r="J47" s="26"/>
+      <c r="K47" s="26"/>
+      <c r="L47" s="27"/>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B48" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C48" s="30" t="s">
+      <c r="C48" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="D48" s="31"/>
-      <c r="E48" s="31"/>
-      <c r="F48" s="31"/>
-      <c r="G48" s="31"/>
-      <c r="H48" s="31"/>
-      <c r="I48" s="31"/>
-      <c r="J48" s="31"/>
-      <c r="K48" s="31"/>
-      <c r="L48" s="32"/>
+      <c r="D48" s="26"/>
+      <c r="E48" s="26"/>
+      <c r="F48" s="26"/>
+      <c r="G48" s="26"/>
+      <c r="H48" s="26"/>
+      <c r="I48" s="26"/>
+      <c r="J48" s="26"/>
+      <c r="K48" s="26"/>
+      <c r="L48" s="27"/>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B49" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C49" s="30" t="s">
+      <c r="C49" s="25" t="s">
         <v>19</v>
       </c>
-      <c r="D49" s="31"/>
-      <c r="E49" s="31"/>
-      <c r="F49" s="31"/>
-      <c r="G49" s="31"/>
-      <c r="H49" s="31"/>
-      <c r="I49" s="31"/>
-      <c r="J49" s="31"/>
-      <c r="K49" s="31"/>
-      <c r="L49" s="32"/>
+      <c r="D49" s="26"/>
+      <c r="E49" s="26"/>
+      <c r="F49" s="26"/>
+      <c r="G49" s="26"/>
+      <c r="H49" s="26"/>
+      <c r="I49" s="26"/>
+      <c r="J49" s="26"/>
+      <c r="K49" s="26"/>
+      <c r="L49" s="27"/>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B50" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C50" s="30" t="s">
+      <c r="C50" s="25" t="s">
         <v>21</v>
       </c>
-      <c r="D50" s="31"/>
-      <c r="E50" s="31"/>
-      <c r="F50" s="31"/>
-      <c r="G50" s="31"/>
-      <c r="H50" s="31"/>
-      <c r="I50" s="31"/>
-      <c r="J50" s="31"/>
-      <c r="K50" s="31"/>
-      <c r="L50" s="32"/>
+      <c r="D50" s="26"/>
+      <c r="E50" s="26"/>
+      <c r="F50" s="26"/>
+      <c r="G50" s="26"/>
+      <c r="H50" s="26"/>
+      <c r="I50" s="26"/>
+      <c r="J50" s="26"/>
+      <c r="K50" s="26"/>
+      <c r="L50" s="27"/>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B51" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C51" s="24" t="s">
+      <c r="C51" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="D51" s="24"/>
-      <c r="E51" s="24"/>
-      <c r="F51" s="24"/>
-      <c r="G51" s="24"/>
-      <c r="H51" s="24"/>
-      <c r="I51" s="24"/>
-      <c r="J51" s="24"/>
-      <c r="K51" s="24"/>
-      <c r="L51" s="24"/>
+      <c r="D51" s="32"/>
+      <c r="E51" s="32"/>
+      <c r="F51" s="32"/>
+      <c r="G51" s="32"/>
+      <c r="H51" s="32"/>
+      <c r="I51" s="32"/>
+      <c r="J51" s="32"/>
+      <c r="K51" s="32"/>
+      <c r="L51" s="32"/>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B52" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C52" s="30" t="s">
+      <c r="C52" s="25" t="s">
         <v>25</v>
       </c>
-      <c r="D52" s="31"/>
-      <c r="E52" s="31"/>
-      <c r="F52" s="31"/>
-      <c r="G52" s="31"/>
-      <c r="H52" s="31"/>
-      <c r="I52" s="31"/>
-      <c r="J52" s="31"/>
-      <c r="K52" s="31"/>
-      <c r="L52" s="32"/>
+      <c r="D52" s="26"/>
+      <c r="E52" s="26"/>
+      <c r="F52" s="26"/>
+      <c r="G52" s="26"/>
+      <c r="H52" s="26"/>
+      <c r="I52" s="26"/>
+      <c r="J52" s="26"/>
+      <c r="K52" s="26"/>
+      <c r="L52" s="27"/>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C54" s="2"/>
@@ -2721,19 +3422,25 @@
       <c r="L55" s="2"/>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C56" s="25"/>
-      <c r="D56" s="25"/>
-      <c r="E56" s="25"/>
-      <c r="F56" s="25"/>
-      <c r="G56" s="25"/>
-      <c r="H56" s="25"/>
-      <c r="I56" s="25"/>
-      <c r="J56" s="25"/>
-      <c r="K56" s="25"/>
-      <c r="L56" s="25"/>
+      <c r="C56" s="28"/>
+      <c r="D56" s="28"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="28"/>
+      <c r="G56" s="28"/>
+      <c r="H56" s="28"/>
+      <c r="I56" s="28"/>
+      <c r="J56" s="28"/>
+      <c r="K56" s="28"/>
+      <c r="L56" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="H30:L30"/>
     <mergeCell ref="B43:L43"/>
     <mergeCell ref="C44:L44"/>
     <mergeCell ref="C56:L56"/>
@@ -2745,12 +3452,6 @@
     <mergeCell ref="C50:L50"/>
     <mergeCell ref="C51:L51"/>
     <mergeCell ref="C52:L52"/>
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="H30:L30"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -2791,30 +3492,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="33" t="s">
         <v>193</v>
       </c>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="I2" s="26" t="s">
+      <c r="C2" s="33"/>
+      <c r="D2" s="33"/>
+      <c r="E2" s="33"/>
+      <c r="F2" s="33"/>
+      <c r="G2" s="33"/>
+      <c r="I2" s="36" t="s">
         <v>239</v>
       </c>
-      <c r="J2" s="26"/>
-      <c r="K2" s="26"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="26"/>
-      <c r="N2" s="26"/>
-      <c r="P2" s="26" t="s">
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="36"/>
+      <c r="P2" s="36" t="s">
         <v>212</v>
       </c>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
+      <c r="Q2" s="36"/>
+      <c r="R2" s="36"/>
+      <c r="S2" s="36"/>
+      <c r="T2" s="36"/>
+      <c r="U2" s="36"/>
     </row>
     <row r="3" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
@@ -3367,30 +4068,30 @@
       </c>
     </row>
     <row r="13" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="26" t="s">
+      <c r="B13" s="36" t="s">
         <v>213</v>
       </c>
-      <c r="C13" s="26"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="I13" s="26" t="s">
+      <c r="C13" s="36"/>
+      <c r="D13" s="36"/>
+      <c r="E13" s="36"/>
+      <c r="F13" s="36"/>
+      <c r="G13" s="36"/>
+      <c r="I13" s="36" t="s">
         <v>240</v>
       </c>
-      <c r="J13" s="26"/>
-      <c r="K13" s="26"/>
-      <c r="L13" s="26"/>
-      <c r="M13" s="26"/>
-      <c r="N13" s="26"/>
-      <c r="P13" s="26" t="s">
+      <c r="J13" s="36"/>
+      <c r="K13" s="36"/>
+      <c r="L13" s="36"/>
+      <c r="M13" s="36"/>
+      <c r="N13" s="36"/>
+      <c r="P13" s="36" t="s">
         <v>26</v>
       </c>
-      <c r="Q13" s="26"/>
-      <c r="R13" s="26"/>
-      <c r="S13" s="26"/>
-      <c r="T13" s="26"/>
-      <c r="U13" s="26"/>
+      <c r="Q13" s="36"/>
+      <c r="R13" s="36"/>
+      <c r="S13" s="36"/>
+      <c r="T13" s="36"/>
+      <c r="U13" s="36"/>
     </row>
     <row r="14" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
@@ -3933,52 +4634,52 @@
       <c r="C24" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="D24" s="27">
+      <c r="D24" s="34">
         <f>$D$11+$K$11+$R$11+$D$22+$K$22+$R$22</f>
         <v>281.18099999999998</v>
       </c>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
+      <c r="E24" s="35"/>
+      <c r="F24" s="35"/>
+      <c r="G24" s="35"/>
     </row>
     <row r="25" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B25" s="3"/>
       <c r="C25" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="D25" s="27">
+      <c r="D25" s="34">
         <f>$E$11+$L$11+$S$11+$E$22+$L$22+$S$22</f>
         <v>155.77199999999996</v>
       </c>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
+      <c r="E25" s="35"/>
+      <c r="F25" s="35"/>
+      <c r="G25" s="35"/>
     </row>
     <row r="26" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B26" s="3"/>
       <c r="C26" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="D26" s="27">
+      <c r="D26" s="34">
         <f>$F$11+$M$11+$T$11+$F$22+$M$22+$T$22</f>
         <v>29.762000000000008</v>
       </c>
-      <c r="E26" s="28"/>
-      <c r="F26" s="28"/>
-      <c r="G26" s="28"/>
+      <c r="E26" s="35"/>
+      <c r="F26" s="35"/>
+      <c r="G26" s="35"/>
     </row>
     <row r="27" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B27" s="3"/>
       <c r="C27" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="D27" s="29">
+      <c r="D27" s="37">
         <f>$G$11+$N$11+$U$11+$G$22+$N$22+$U$22</f>
         <v>2015.6699999999998</v>
       </c>
-      <c r="E27" s="28"/>
-      <c r="F27" s="28"/>
-      <c r="G27" s="28"/>
+      <c r="E27" s="35"/>
+      <c r="F27" s="35"/>
+      <c r="G27" s="35"/>
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
@@ -3987,42 +4688,48 @@
       <c r="C29" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="D29" s="27">
+      <c r="D29" s="34">
         <f>($D$11+$K$11+$R$11+$D$22+$K$22+$R$22)/DADOS!C11</f>
         <v>4.2961191749427039</v>
       </c>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
+      <c r="E29" s="35"/>
+      <c r="F29" s="35"/>
+      <c r="G29" s="35"/>
     </row>
     <row r="30" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B30" s="3"/>
       <c r="C30" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D30" s="27">
+      <c r="D30" s="34">
         <f>($E$11+$L$11+$S$11+$E$22+$L$22+$S$22)/DADOS!C11</f>
         <v>2.3800152788388074</v>
       </c>
-      <c r="E30" s="28"/>
-      <c r="F30" s="28"/>
-      <c r="G30" s="28"/>
+      <c r="E30" s="35"/>
+      <c r="F30" s="35"/>
+      <c r="G30" s="35"/>
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B31" s="3"/>
       <c r="C31" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="D31" s="27">
+      <c r="D31" s="34">
         <f>($F$11+$M$11+$T$11+$F$22+$M$22+$T$22)/DADOS!C11</f>
         <v>0.45472880061115367</v>
       </c>
-      <c r="E31" s="28"/>
-      <c r="F31" s="28"/>
-      <c r="G31" s="28"/>
+      <c r="E31" s="35"/>
+      <c r="F31" s="35"/>
+      <c r="G31" s="35"/>
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="P2:U2"/>
+    <mergeCell ref="P13:U13"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="B13:G13"/>
     <mergeCell ref="D29:G29"/>
     <mergeCell ref="D30:G30"/>
     <mergeCell ref="D31:G31"/>
@@ -4030,12 +4737,6 @@
     <mergeCell ref="I13:N13"/>
     <mergeCell ref="I2:N2"/>
     <mergeCell ref="D27:G27"/>
-    <mergeCell ref="P2:U2"/>
-    <mergeCell ref="P13:U13"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="B13:G13"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" scale="77" orientation="landscape" r:id="rId1"/>
@@ -4060,21 +4761,21 @@
   <sheetPr codeName="Plan4"/>
   <dimension ref="A1:I147"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="39.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="8.85546875" style="37"/>
+    <col min="2" max="2" width="8.85546875" style="22"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>68</v>
       </c>
-      <c r="B1" s="37">
+      <c r="B1" s="22">
         <v>1.2E-2</v>
       </c>
       <c r="D1">
@@ -4097,7 +4798,7 @@
       <c r="A2" t="s">
         <v>69</v>
       </c>
-      <c r="B2" s="37">
+      <c r="B2" s="22">
         <v>2.4E-2</v>
       </c>
       <c r="D2">
@@ -4111,7 +4812,7 @@
       <c r="A3" t="s">
         <v>54</v>
       </c>
-      <c r="B3" s="37">
+      <c r="B3" s="22">
         <v>2.7E-2</v>
       </c>
       <c r="D3">
@@ -4125,7 +4826,7 @@
       <c r="A4" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="37">
+      <c r="B4" s="22">
         <v>1.0999999999999999E-2</v>
       </c>
       <c r="D4">
@@ -4139,7 +4840,7 @@
       <c r="A5" t="s">
         <v>56</v>
       </c>
-      <c r="B5" s="37">
+      <c r="B5" s="22">
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="D5">
@@ -4153,7 +4854,7 @@
       <c r="A6" t="s">
         <v>70</v>
       </c>
-      <c r="B6" s="37">
+      <c r="B6" s="22">
         <v>3.4000000000000002E-2</v>
       </c>
       <c r="D6">
@@ -4167,7 +4868,7 @@
       <c r="A7" t="s">
         <v>160</v>
       </c>
-      <c r="B7" s="37">
+      <c r="B7" s="22">
         <v>0.10700000000000001</v>
       </c>
       <c r="D7">
@@ -4181,7 +4882,7 @@
       <c r="A8" t="s">
         <v>103</v>
       </c>
-      <c r="B8" s="37">
+      <c r="B8" s="22">
         <v>0.26700000000000002</v>
       </c>
       <c r="D8">
@@ -4195,7 +4896,7 @@
       <c r="A9" t="s">
         <v>104</v>
       </c>
-      <c r="B9" s="37">
+      <c r="B9" s="22">
         <v>0.27300000000000002</v>
       </c>
       <c r="D9">
@@ -4209,7 +4910,7 @@
       <c r="A10" t="s">
         <v>172</v>
       </c>
-      <c r="B10" s="37">
+      <c r="B10" s="22">
         <v>0.223</v>
       </c>
       <c r="D10">
@@ -4223,7 +4924,7 @@
       <c r="A11" t="s">
         <v>165</v>
       </c>
-      <c r="B11" s="37">
+      <c r="B11" s="22">
         <v>0.248</v>
       </c>
       <c r="D11">
@@ -4237,7 +4938,7 @@
       <c r="A12" t="s">
         <v>161</v>
       </c>
-      <c r="B12" s="37">
+      <c r="B12" s="22">
         <v>0.122</v>
       </c>
       <c r="D12">
@@ -4251,7 +4952,7 @@
       <c r="A13" t="s">
         <v>40</v>
       </c>
-      <c r="B13" s="37">
+      <c r="B13" s="22">
         <v>5.7999999999999996E-2</v>
       </c>
       <c r="D13">
@@ -4265,7 +4966,7 @@
       <c r="A14" t="s">
         <v>41</v>
       </c>
-      <c r="B14" s="37">
+      <c r="B14" s="22">
         <v>6.0000000000000005E-2</v>
       </c>
       <c r="D14">
@@ -4279,7 +4980,7 @@
       <c r="A15" t="s">
         <v>42</v>
       </c>
-      <c r="B15" s="37">
+      <c r="B15" s="22">
         <v>2.5999999999999999E-2</v>
       </c>
       <c r="D15">
@@ -4293,7 +4994,7 @@
       <c r="A16" t="s">
         <v>94</v>
       </c>
-      <c r="B16" s="37">
+      <c r="B16" s="22">
         <v>0.26200000000000001</v>
       </c>
       <c r="D16">
@@ -4307,7 +5008,7 @@
       <c r="A17" t="s">
         <v>95</v>
       </c>
-      <c r="B17" s="37">
+      <c r="B17" s="22">
         <v>0.25700000000000001</v>
       </c>
       <c r="D17">
@@ -4321,7 +5022,7 @@
       <c r="A18" t="s">
         <v>43</v>
       </c>
-      <c r="B18" s="37">
+      <c r="B18" s="22">
         <v>0.22200000000000003</v>
       </c>
       <c r="D18">
@@ -4335,7 +5036,7 @@
       <c r="A19" t="s">
         <v>90</v>
       </c>
-      <c r="B19" s="37">
+      <c r="B19" s="22">
         <v>0</v>
       </c>
       <c r="D19">
@@ -4349,7 +5050,7 @@
       <c r="A20" t="s">
         <v>91</v>
       </c>
-      <c r="B20" s="37">
+      <c r="B20" s="22">
         <v>0</v>
       </c>
       <c r="D20">
@@ -4363,7 +5064,7 @@
       <c r="A21" t="s">
         <v>157</v>
       </c>
-      <c r="B21" s="37">
+      <c r="B21" s="22">
         <v>1.9E-2</v>
       </c>
       <c r="D21">
@@ -4377,7 +5078,7 @@
       <c r="A22" t="s">
         <v>158</v>
       </c>
-      <c r="B22" s="37">
+      <c r="B22" s="22">
         <v>1.3999999999999999E-2</v>
       </c>
       <c r="D22">
@@ -4391,7 +5092,7 @@
       <c r="A23" t="s">
         <v>96</v>
       </c>
-      <c r="B23" s="37">
+      <c r="B23" s="22">
         <v>0.28999999999999998</v>
       </c>
       <c r="D23">
@@ -4405,7 +5106,7 @@
       <c r="A24" t="s">
         <v>71</v>
       </c>
-      <c r="B24" s="37">
+      <c r="B24" s="22">
         <v>5.6000000000000001E-2</v>
       </c>
       <c r="D24">
@@ -4419,7 +5120,7 @@
       <c r="A25" t="s">
         <v>72</v>
       </c>
-      <c r="B25" s="37">
+      <c r="B25" s="22">
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="D25">
@@ -4433,7 +5134,7 @@
       <c r="A26" t="s">
         <v>57</v>
       </c>
-      <c r="B26" s="37">
+      <c r="B26" s="22">
         <v>3.3000000000000002E-2</v>
       </c>
       <c r="D26">
@@ -4447,7 +5148,7 @@
       <c r="A27" t="s">
         <v>58</v>
       </c>
-      <c r="B27" s="37">
+      <c r="B27" s="22">
         <v>2.8999999999999998E-2</v>
       </c>
       <c r="D27">
@@ -4461,7 +5162,7 @@
       <c r="A28" t="s">
         <v>59</v>
       </c>
-      <c r="B28" s="37">
+      <c r="B28" s="22">
         <v>2.7E-2</v>
       </c>
       <c r="D28">
@@ -4475,7 +5176,7 @@
       <c r="A29" t="s">
         <v>60</v>
       </c>
-      <c r="B29" s="37">
+      <c r="B29" s="22">
         <v>9.5000000000000001E-2</v>
       </c>
       <c r="D29">
@@ -4489,7 +5190,7 @@
       <c r="A30" t="s">
         <v>61</v>
       </c>
-      <c r="B30" s="37">
+      <c r="B30" s="22">
         <v>3.1E-2</v>
       </c>
       <c r="D30">
@@ -4503,7 +5204,7 @@
       <c r="A31" t="s">
         <v>142</v>
       </c>
-      <c r="B31" s="37">
+      <c r="B31" s="22">
         <v>0.03</v>
       </c>
       <c r="D31">
@@ -4517,7 +5218,7 @@
       <c r="A32" t="s">
         <v>44</v>
       </c>
-      <c r="B32" s="37">
+      <c r="B32" s="22">
         <v>0.17499999999999999</v>
       </c>
       <c r="D32">
@@ -4531,7 +5232,7 @@
       <c r="A33" t="s">
         <v>62</v>
       </c>
-      <c r="B33" s="37">
+      <c r="B33" s="22">
         <v>0.114</v>
       </c>
       <c r="D33">
@@ -4545,7 +5246,7 @@
       <c r="A34" t="s">
         <v>45</v>
       </c>
-      <c r="B34" s="37">
+      <c r="B34" s="22">
         <v>0.187</v>
       </c>
       <c r="D34">
@@ -4559,7 +5260,7 @@
       <c r="A35" t="s">
         <v>136</v>
       </c>
-      <c r="B35" s="37">
+      <c r="B35" s="22">
         <v>0.33700000000000002</v>
       </c>
       <c r="D35">
@@ -4573,7 +5274,7 @@
       <c r="A36" t="s">
         <v>46</v>
       </c>
-      <c r="B36" s="37">
+      <c r="B36" s="22">
         <v>0.104</v>
       </c>
       <c r="D36">
@@ -4587,7 +5288,7 @@
       <c r="A37" t="s">
         <v>47</v>
       </c>
-      <c r="B37" s="37">
+      <c r="B37" s="22">
         <v>0.10400000000000001</v>
       </c>
       <c r="D37">
@@ -4601,7 +5302,7 @@
       <c r="A38" t="s">
         <v>97</v>
       </c>
-      <c r="B38" s="37">
+      <c r="B38" s="22">
         <v>0.19</v>
       </c>
       <c r="D38">
@@ -4615,7 +5316,7 @@
       <c r="A39" t="s">
         <v>105</v>
       </c>
-      <c r="B39" s="37">
+      <c r="B39" s="22">
         <v>0.307</v>
       </c>
       <c r="D39">
@@ -4629,7 +5330,7 @@
       <c r="A40" t="s">
         <v>106</v>
       </c>
-      <c r="B40" s="37">
+      <c r="B40" s="22">
         <v>0.35099999999999998</v>
       </c>
       <c r="D40">
@@ -4643,7 +5344,7 @@
       <c r="A41" t="s">
         <v>173</v>
       </c>
-      <c r="B41" s="37">
+      <c r="B41" s="22">
         <v>0.221</v>
       </c>
       <c r="D41">
@@ -4657,7 +5358,7 @@
       <c r="A42" t="s">
         <v>162</v>
       </c>
-      <c r="B42" s="37">
+      <c r="B42" s="22">
         <v>8.1000000000000003E-2</v>
       </c>
       <c r="D42">
@@ -4671,7 +5372,7 @@
       <c r="A43" t="s">
         <v>35</v>
       </c>
-      <c r="B43" s="37">
+      <c r="B43" s="22">
         <v>3</v>
       </c>
       <c r="D43">
@@ -4685,7 +5386,7 @@
       <c r="A44" t="s">
         <v>174</v>
       </c>
-      <c r="B44" s="37">
+      <c r="B44" s="22">
         <v>4.9999999999999996E-2</v>
       </c>
       <c r="D44">
@@ -4699,7 +5400,7 @@
       <c r="A45" t="s">
         <v>108</v>
       </c>
-      <c r="B45" s="37">
+      <c r="B45" s="22">
         <v>0.29899999999999999</v>
       </c>
       <c r="D45">
@@ -4713,7 +5414,7 @@
       <c r="A46" t="s">
         <v>107</v>
       </c>
-      <c r="B46" s="37">
+      <c r="B46" s="22">
         <v>0.22099999999999997</v>
       </c>
       <c r="D46">
@@ -4727,7 +5428,7 @@
       <c r="A47" t="s">
         <v>109</v>
       </c>
-      <c r="B47" s="37">
+      <c r="B47" s="22">
         <v>0.32400000000000001</v>
       </c>
       <c r="D47">
@@ -4741,7 +5442,7 @@
       <c r="A48" t="s">
         <v>137</v>
       </c>
-      <c r="B48" s="37">
+      <c r="B48" s="22">
         <v>0.30199999999999999</v>
       </c>
       <c r="D48">
@@ -4755,7 +5456,7 @@
       <c r="A49" t="s">
         <v>124</v>
       </c>
-      <c r="B49" s="37">
+      <c r="B49" s="22">
         <v>0.28499999999999998</v>
       </c>
       <c r="D49">
@@ -4769,7 +5470,7 @@
       <c r="A50" t="s">
         <v>125</v>
       </c>
-      <c r="B50" s="37">
+      <c r="B50" s="22">
         <v>0.26900000000000002</v>
       </c>
       <c r="D50">
@@ -4783,7 +5484,7 @@
       <c r="A51" t="s">
         <v>110</v>
       </c>
-      <c r="B51" s="37">
+      <c r="B51" s="22">
         <v>0.31900000000000001</v>
       </c>
       <c r="D51">
@@ -4797,7 +5498,7 @@
       <c r="A52" t="s">
         <v>111</v>
       </c>
-      <c r="B52" s="37">
+      <c r="B52" s="22">
         <v>0.32400000000000001</v>
       </c>
       <c r="D52">
@@ -4811,7 +5512,7 @@
       <c r="A53" t="s">
         <v>38</v>
       </c>
-      <c r="B53" s="37">
+      <c r="B53" s="22">
         <v>1</v>
       </c>
       <c r="D53">
@@ -4825,7 +5526,7 @@
       <c r="A54" t="s">
         <v>143</v>
       </c>
-      <c r="B54" s="37">
+      <c r="B54" s="22">
         <v>2.0999999999999998E-2</v>
       </c>
       <c r="D54">
@@ -4839,7 +5540,7 @@
       <c r="A55" t="s">
         <v>112</v>
       </c>
-      <c r="B55" s="37">
+      <c r="B55" s="22">
         <v>0.28599999999999998</v>
       </c>
       <c r="D55">
@@ -4853,7 +5554,7 @@
       <c r="A56" t="s">
         <v>48</v>
       </c>
-      <c r="B56" s="37">
+      <c r="B56" s="22">
         <v>0.17099999999999999</v>
       </c>
       <c r="D56">
@@ -4867,7 +5568,7 @@
       <c r="A57" t="s">
         <v>49</v>
       </c>
-      <c r="B57" s="37">
+      <c r="B57" s="22">
         <v>0.192</v>
       </c>
       <c r="D57">
@@ -4881,7 +5582,7 @@
       <c r="A58" t="s">
         <v>63</v>
       </c>
-      <c r="B58" s="37">
+      <c r="B58" s="22">
         <v>0.10600000000000001</v>
       </c>
       <c r="D58">
@@ -4895,7 +5596,7 @@
       <c r="A59" t="s">
         <v>166</v>
       </c>
-      <c r="B59" s="37">
+      <c r="B59" s="22">
         <v>6.5000000000000002E-2</v>
       </c>
       <c r="D59">
@@ -4909,7 +5610,7 @@
       <c r="A60" t="s">
         <v>167</v>
       </c>
-      <c r="B60" s="37">
+      <c r="B60" s="22">
         <v>6.8000000000000005E-2</v>
       </c>
       <c r="D60">
@@ -4923,7 +5624,7 @@
       <c r="A61" t="s">
         <v>168</v>
       </c>
-      <c r="B61" s="37">
+      <c r="B61" s="22">
         <v>6.3E-2</v>
       </c>
       <c r="D61">
@@ -4937,7 +5638,7 @@
       <c r="A62" t="s">
         <v>169</v>
       </c>
-      <c r="B62" s="37">
+      <c r="B62" s="22">
         <v>7.3000000000000009E-2</v>
       </c>
       <c r="D62">
@@ -4951,7 +5652,7 @@
       <c r="A63" t="s">
         <v>163</v>
       </c>
-      <c r="B63" s="37">
+      <c r="B63" s="22">
         <v>0.10199999999999999</v>
       </c>
       <c r="D63">
@@ -4965,7 +5666,7 @@
       <c r="A64" t="s">
         <v>113</v>
       </c>
-      <c r="B64" s="37">
+      <c r="B64" s="22">
         <v>0.30399999999999999</v>
       </c>
       <c r="D64">
@@ -4979,7 +5680,7 @@
       <c r="A65" t="s">
         <v>127</v>
       </c>
-      <c r="B65" s="37">
+      <c r="B65" s="22">
         <v>0.315</v>
       </c>
       <c r="D65">
@@ -4993,7 +5694,7 @@
       <c r="A66" t="s">
         <v>128</v>
       </c>
-      <c r="B66" s="37">
+      <c r="B66" s="22">
         <v>0.32</v>
       </c>
       <c r="D66">
@@ -5007,7 +5708,7 @@
       <c r="A67" t="s">
         <v>126</v>
       </c>
-      <c r="B67" s="37">
+      <c r="B67" s="22">
         <v>0.29399999999999998</v>
       </c>
       <c r="D67">
@@ -5021,7 +5722,7 @@
       <c r="A68" t="s">
         <v>99</v>
       </c>
-      <c r="B68" s="37">
+      <c r="B68" s="22">
         <v>0.23899999999999999</v>
       </c>
       <c r="D68">
@@ -5035,7 +5736,7 @@
       <c r="A69" t="s">
         <v>100</v>
       </c>
-      <c r="B69" s="37">
+      <c r="B69" s="22">
         <v>0.26100000000000001</v>
       </c>
       <c r="D69">
@@ -5049,7 +5750,7 @@
       <c r="A70" t="s">
         <v>114</v>
       </c>
-      <c r="B70" s="37">
+      <c r="B70" s="22">
         <v>0.32800000000000001</v>
       </c>
       <c r="D70">
@@ -5063,7 +5764,7 @@
       <c r="A71" t="s">
         <v>115</v>
       </c>
-      <c r="B71" s="37">
+      <c r="B71" s="22">
         <v>0.24199999999999999</v>
       </c>
       <c r="D71">
@@ -5077,7 +5778,7 @@
       <c r="A72" t="s">
         <v>175</v>
       </c>
-      <c r="B72" s="37">
+      <c r="B72" s="22">
         <v>0.23899999999999999</v>
       </c>
       <c r="D72">
@@ -5091,7 +5792,7 @@
       <c r="A73" t="s">
         <v>73</v>
       </c>
-      <c r="B73" s="37">
+      <c r="B73" s="22">
         <v>2.5000000000000001E-2</v>
       </c>
       <c r="D73">
@@ -5105,7 +5806,7 @@
       <c r="A74" t="s">
         <v>74</v>
       </c>
-      <c r="B74" s="37">
+      <c r="B74" s="22">
         <v>2.7E-2</v>
       </c>
       <c r="D74">
@@ -5119,7 +5820,7 @@
       <c r="A75" t="s">
         <v>180</v>
       </c>
-      <c r="B75" s="37">
+      <c r="B75" s="22">
         <v>0.1</v>
       </c>
       <c r="D75">
@@ -5133,7 +5834,7 @@
       <c r="A76" t="s">
         <v>144</v>
       </c>
-      <c r="B76" s="37">
+      <c r="B76" s="22">
         <v>4.3000000000000003E-2</v>
       </c>
       <c r="D76">
@@ -5147,7 +5848,7 @@
       <c r="A77" t="s">
         <v>145</v>
       </c>
-      <c r="B77" s="37">
+      <c r="B77" s="22">
         <v>4.4999999999999998E-2</v>
       </c>
       <c r="D77">
@@ -5161,7 +5862,7 @@
       <c r="A78" t="s">
         <v>75</v>
       </c>
-      <c r="B78" s="37">
+      <c r="B78" s="22">
         <v>2.7E-2</v>
       </c>
       <c r="D78">
@@ -5175,7 +5876,7 @@
       <c r="A79" t="s">
         <v>116</v>
       </c>
-      <c r="B79" s="37">
+      <c r="B79" s="22">
         <v>0.32900000000000001</v>
       </c>
       <c r="D79">
@@ -5189,7 +5890,7 @@
       <c r="A80" t="s">
         <v>76</v>
       </c>
-      <c r="B80" s="37">
+      <c r="B80" s="22">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="D80">
@@ -5203,7 +5904,7 @@
       <c r="A81" t="s">
         <v>77</v>
       </c>
-      <c r="B81" s="37">
+      <c r="B81" s="22">
         <v>1.9E-2</v>
       </c>
       <c r="D81">
@@ -5217,7 +5918,7 @@
       <c r="A82" t="s">
         <v>78</v>
       </c>
-      <c r="B82" s="37">
+      <c r="B82" s="22">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="D82">
@@ -5231,7 +5932,7 @@
       <c r="A83" t="s">
         <v>146</v>
       </c>
-      <c r="B83" s="37">
+      <c r="B83" s="22">
         <v>0.14799999999999999</v>
       </c>
       <c r="D83">
@@ -5245,7 +5946,7 @@
       <c r="A84" t="s">
         <v>147</v>
       </c>
-      <c r="B84" s="37">
+      <c r="B84" s="22">
         <v>0.41299999999999998</v>
       </c>
       <c r="D84">
@@ -5259,7 +5960,7 @@
       <c r="A85" t="s">
         <v>170</v>
       </c>
-      <c r="B85" s="37">
+      <c r="B85" s="22">
         <v>8.3000000000000004E-2</v>
       </c>
       <c r="D85">
@@ -5273,7 +5974,7 @@
       <c r="A86" t="s">
         <v>131</v>
       </c>
-      <c r="B86" s="37">
+      <c r="B86" s="22">
         <v>0.183</v>
       </c>
       <c r="D86">
@@ -5287,7 +5988,7 @@
       <c r="A87" t="s">
         <v>132</v>
       </c>
-      <c r="B87" s="37">
+      <c r="B87" s="22">
         <v>0.182</v>
       </c>
       <c r="D87">
@@ -5301,7 +6002,7 @@
       <c r="A88" t="s">
         <v>133</v>
       </c>
-      <c r="B88" s="37">
+      <c r="B88" s="22">
         <v>0.20499999999999999</v>
       </c>
       <c r="D88">
@@ -5315,7 +6016,7 @@
       <c r="A89" t="s">
         <v>134</v>
       </c>
-      <c r="B89" s="37">
+      <c r="B89" s="22">
         <v>0.23200000000000001</v>
       </c>
       <c r="D89">
@@ -5329,7 +6030,7 @@
       <c r="A90" t="s">
         <v>176</v>
       </c>
-      <c r="B90" s="37">
+      <c r="B90" s="22">
         <v>0.19499999999999998</v>
       </c>
       <c r="D90">
@@ -5343,7 +6044,7 @@
       <c r="A91" t="s">
         <v>138</v>
       </c>
-      <c r="B91" s="37">
+      <c r="B91" s="22">
         <v>0.35699999999999998</v>
       </c>
       <c r="D91">
@@ -5357,7 +6058,7 @@
       <c r="A92" t="s">
         <v>79</v>
       </c>
-      <c r="B92" s="37">
+      <c r="B92" s="22">
         <v>2.3E-2</v>
       </c>
       <c r="D92">
@@ -5371,7 +6072,7 @@
       <c r="A93" t="s">
         <v>50</v>
       </c>
-      <c r="B93" s="37">
+      <c r="B93" s="22">
         <v>0.19700000000000001</v>
       </c>
       <c r="D93">
@@ -5385,7 +6086,7 @@
       <c r="A94" t="s">
         <v>159</v>
       </c>
-      <c r="B94" s="37">
+      <c r="B94" s="22">
         <v>1.6E-2</v>
       </c>
       <c r="D94">
@@ -5399,7 +6100,7 @@
       <c r="A95" t="s">
         <v>80</v>
       </c>
-      <c r="B95" s="37">
+      <c r="B95" s="22">
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="D95">
@@ -5413,7 +6114,7 @@
       <c r="A96" t="s">
         <v>81</v>
       </c>
-      <c r="B96" s="37">
+      <c r="B96" s="22">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="D96">
@@ -5427,7 +6128,7 @@
       <c r="A97" t="s">
         <v>117</v>
       </c>
-      <c r="B97" s="37">
+      <c r="B97" s="22">
         <v>0.307</v>
       </c>
       <c r="D97">
@@ -5441,7 +6142,7 @@
       <c r="A98" t="s">
         <v>64</v>
       </c>
-      <c r="B98" s="37">
+      <c r="B98" s="22">
         <v>4.3999999999999997E-2</v>
       </c>
       <c r="D98">
@@ -5455,7 +6156,7 @@
       <c r="A99" t="s">
         <v>65</v>
       </c>
-      <c r="B99" s="37">
+      <c r="B99" s="22">
         <v>7.6999999999999999E-2</v>
       </c>
       <c r="D99">
@@ -5469,7 +6170,7 @@
       <c r="A100" t="s">
         <v>92</v>
       </c>
-      <c r="B100" s="37">
+      <c r="B100" s="22">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="D100">
@@ -5483,7 +6184,7 @@
       <c r="A101" t="s">
         <v>93</v>
       </c>
-      <c r="B101" s="37">
+      <c r="B101" s="22">
         <v>4.0000000000000001E-3</v>
       </c>
       <c r="D101">
@@ -5497,7 +6198,7 @@
       <c r="A102" t="s">
         <v>82</v>
       </c>
-      <c r="B102" s="37">
+      <c r="B102" s="22">
         <v>1.6E-2</v>
       </c>
       <c r="D102">
@@ -5511,7 +6212,7 @@
       <c r="A103" t="s">
         <v>51</v>
       </c>
-      <c r="B103" s="37">
+      <c r="B103" s="22">
         <v>5.3000000000000005E-2</v>
       </c>
       <c r="D103">
@@ -5525,7 +6226,7 @@
       <c r="A104" t="s">
         <v>118</v>
       </c>
-      <c r="B104" s="37">
+      <c r="B104" s="22">
         <v>0.31900000000000001</v>
       </c>
       <c r="D104">
@@ -5539,7 +6240,7 @@
       <c r="A105" t="s">
         <v>83</v>
       </c>
-      <c r="B105" s="37">
+      <c r="B105" s="22">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="D105">
@@ -5553,7 +6254,7 @@
       <c r="A106" t="s">
         <v>135</v>
       </c>
-      <c r="B106" s="37">
+      <c r="B106" s="22">
         <v>0.127</v>
       </c>
       <c r="D106">
@@ -5567,7 +6268,7 @@
       <c r="A107" t="s">
         <v>119</v>
       </c>
-      <c r="B107" s="37">
+      <c r="B107" s="22">
         <v>0.312</v>
       </c>
       <c r="D107">
@@ -5581,7 +6282,7 @@
       <c r="A108" t="s">
         <v>178</v>
       </c>
-      <c r="B108" s="37">
+      <c r="B108" s="22">
         <v>0.16300000000000001</v>
       </c>
       <c r="D108">
@@ -5595,7 +6296,7 @@
       <c r="A109" t="s">
         <v>155</v>
       </c>
-      <c r="B109" s="37">
+      <c r="B109" s="22">
         <v>0.157</v>
       </c>
       <c r="D109">
@@ -5609,7 +6310,7 @@
       <c r="A110" t="s">
         <v>34</v>
       </c>
-      <c r="B110" s="37">
+      <c r="B110" s="22">
         <v>6.3330000000000002</v>
       </c>
       <c r="D110">
@@ -5623,7 +6324,7 @@
       <c r="A111" t="s">
         <v>156</v>
       </c>
-      <c r="B111" s="37">
+      <c r="B111" s="22">
         <v>0.13800000000000001</v>
       </c>
       <c r="D111">
@@ -5637,7 +6338,7 @@
       <c r="A112" t="s">
         <v>171</v>
       </c>
-      <c r="B112" s="37">
+      <c r="B112" s="22">
         <v>0.22500000000000001</v>
       </c>
       <c r="D112">
@@ -5651,7 +6352,7 @@
       <c r="A113" t="s">
         <v>120</v>
       </c>
-      <c r="B113" s="37">
+      <c r="B113" s="22">
         <v>0.29699999999999999</v>
       </c>
       <c r="D113">
@@ -5665,7 +6366,7 @@
       <c r="A114" t="s">
         <v>52</v>
       </c>
-      <c r="B114" s="37">
+      <c r="B114" s="22">
         <v>0.156</v>
       </c>
       <c r="D114">
@@ -5679,7 +6380,7 @@
       <c r="A115" t="s">
         <v>66</v>
       </c>
-      <c r="B115" s="37">
+      <c r="B115" s="22">
         <v>9.4E-2</v>
       </c>
       <c r="D115">
@@ -5693,7 +6394,7 @@
       <c r="A116" t="s">
         <v>39</v>
       </c>
-      <c r="B116" s="37">
+      <c r="B116" s="22">
         <v>5.5</v>
       </c>
       <c r="D116">
@@ -5707,7 +6408,7 @@
       <c r="A117" t="s">
         <v>36</v>
       </c>
-      <c r="B117" s="37">
+      <c r="B117" s="22">
         <v>0.25</v>
       </c>
       <c r="D117">
@@ -5721,7 +6422,7 @@
       <c r="A118" t="s">
         <v>121</v>
       </c>
-      <c r="B118" s="37">
+      <c r="B118" s="22">
         <v>0.35899999999999999</v>
       </c>
       <c r="D118">
@@ -5735,7 +6436,7 @@
       <c r="A119" t="s">
         <v>84</v>
       </c>
-      <c r="B119" s="37">
+      <c r="B119" s="22">
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="D119">
@@ -5749,7 +6450,7 @@
       <c r="A120" t="s">
         <v>85</v>
       </c>
-      <c r="B120" s="37">
+      <c r="B120" s="22">
         <v>2.4E-2</v>
       </c>
       <c r="D120">
@@ -5763,7 +6464,7 @@
       <c r="A121" t="s">
         <v>98</v>
       </c>
-      <c r="B121" s="37">
+      <c r="B121" s="22">
         <v>0.27400000000000002</v>
       </c>
       <c r="D121">
@@ -5777,7 +6478,7 @@
       <c r="A122" t="s">
         <v>122</v>
       </c>
-      <c r="B122" s="37">
+      <c r="B122" s="22">
         <v>0.26400000000000001</v>
       </c>
       <c r="D122">
@@ -5791,7 +6492,7 @@
       <c r="A123" t="s">
         <v>123</v>
       </c>
-      <c r="B123" s="37">
+      <c r="B123" s="22">
         <v>0.31900000000000001</v>
       </c>
       <c r="D123">
@@ -5805,7 +6506,7 @@
       <c r="A124" t="s">
         <v>177</v>
       </c>
-      <c r="B124" s="37">
+      <c r="B124" s="22">
         <v>8.4999999999999992E-2</v>
       </c>
       <c r="D124">
@@ -5819,7 +6520,7 @@
       <c r="A125" t="s">
         <v>53</v>
       </c>
-      <c r="B125" s="37">
+      <c r="B125" s="22">
         <v>0.187</v>
       </c>
       <c r="D125">
@@ -5833,7 +6534,7 @@
       <c r="A126" t="s">
         <v>67</v>
       </c>
-      <c r="B126" s="37">
+      <c r="B126" s="22">
         <v>0.112</v>
       </c>
       <c r="D126">
@@ -5847,7 +6548,7 @@
       <c r="A127" t="s">
         <v>139</v>
       </c>
-      <c r="B127" s="37">
+      <c r="B127" s="22">
         <v>0.14599999999999999</v>
       </c>
       <c r="D127">
@@ -5861,7 +6562,7 @@
       <c r="A128" t="s">
         <v>140</v>
       </c>
-      <c r="B128" s="37">
+      <c r="B128" s="22">
         <v>0.14599999999999999</v>
       </c>
       <c r="D128">
@@ -5875,7 +6576,7 @@
       <c r="A129" t="s">
         <v>148</v>
       </c>
-      <c r="B129" s="37">
+      <c r="B129" s="22">
         <v>0.17799999999999999</v>
       </c>
       <c r="D129">
@@ -5889,7 +6590,7 @@
       <c r="A130" t="s">
         <v>149</v>
       </c>
-      <c r="B130" s="37">
+      <c r="B130" s="22">
         <v>0.216</v>
       </c>
       <c r="D130">
@@ -5903,7 +6604,7 @@
       <c r="A131" t="s">
         <v>150</v>
       </c>
-      <c r="B131" s="37">
+      <c r="B131" s="22">
         <v>0.23</v>
       </c>
       <c r="D131">
@@ -5917,7 +6618,7 @@
       <c r="A132" t="s">
         <v>151</v>
       </c>
-      <c r="B132" s="37">
+      <c r="B132" s="22">
         <v>0.35799999999999998</v>
       </c>
       <c r="D132">
@@ -5931,7 +6632,7 @@
       <c r="A133" t="s">
         <v>152</v>
       </c>
-      <c r="B133" s="37">
+      <c r="B133" s="22">
         <v>0.22900000000000001</v>
       </c>
       <c r="D133">
@@ -5945,7 +6646,7 @@
       <c r="A134" t="s">
         <v>153</v>
       </c>
-      <c r="B134" s="37">
+      <c r="B134" s="22">
         <v>9.9000000000000005E-2</v>
       </c>
       <c r="D134">
@@ -5959,7 +6660,7 @@
       <c r="A135" t="s">
         <v>154</v>
       </c>
-      <c r="B135" s="37">
+      <c r="B135" s="22">
         <v>0.13100000000000001</v>
       </c>
       <c r="D135">
@@ -5973,7 +6674,7 @@
       <c r="A136" t="s">
         <v>179</v>
       </c>
-      <c r="B136" s="37">
+      <c r="B136" s="22">
         <v>0</v>
       </c>
       <c r="D136">
@@ -5987,7 +6688,7 @@
       <c r="A137" t="s">
         <v>141</v>
       </c>
-      <c r="B137" s="37">
+      <c r="B137" s="22">
         <v>0.26200000000000001</v>
       </c>
       <c r="D137">
@@ -6001,7 +6702,7 @@
       <c r="A138" t="s">
         <v>101</v>
       </c>
-      <c r="B138" s="37">
+      <c r="B138" s="22">
         <v>0.32200000000000001</v>
       </c>
       <c r="D138">
@@ -6015,7 +6716,7 @@
       <c r="A139" t="s">
         <v>102</v>
       </c>
-      <c r="B139" s="37">
+      <c r="B139" s="22">
         <v>0.159</v>
       </c>
       <c r="D139">
@@ -6029,7 +6730,7 @@
       <c r="A140" t="s">
         <v>129</v>
       </c>
-      <c r="B140" s="37">
+      <c r="B140" s="22">
         <v>0.28699999999999998</v>
       </c>
       <c r="D140">
@@ -6043,7 +6744,7 @@
       <c r="A141" t="s">
         <v>130</v>
       </c>
-      <c r="B141" s="37">
+      <c r="B141" s="22">
         <v>0.29199999999999998</v>
       </c>
       <c r="D141">
@@ -6057,7 +6758,7 @@
       <c r="A142" t="s">
         <v>89</v>
       </c>
-      <c r="B142" s="37">
+      <c r="B142" s="22">
         <v>1.7999999999999999E-2</v>
       </c>
       <c r="D142">
@@ -6071,7 +6772,7 @@
       <c r="A143" t="s">
         <v>86</v>
       </c>
-      <c r="B143" s="37">
+      <c r="B143" s="22">
         <v>0.02</v>
       </c>
       <c r="D143">
@@ -6085,7 +6786,7 @@
       <c r="A144" t="s">
         <v>164</v>
       </c>
-      <c r="B144" s="37">
+      <c r="B144" s="22">
         <v>0.08</v>
       </c>
       <c r="D144">
@@ -6099,7 +6800,7 @@
       <c r="A145" t="s">
         <v>87</v>
       </c>
-      <c r="B145" s="37">
+      <c r="B145" s="22">
         <v>2.4E-2</v>
       </c>
       <c r="D145">
@@ -6113,7 +6814,7 @@
       <c r="A146" t="s">
         <v>88</v>
       </c>
-      <c r="B146" s="37">
+      <c r="B146" s="22">
         <v>2.1999999999999999E-2</v>
       </c>
       <c r="D146">
@@ -6127,7 +6828,7 @@
       <c r="A147" t="s">
         <v>37</v>
       </c>
-      <c r="B147" s="37">
+      <c r="B147" s="22">
         <v>0.8</v>
       </c>
       <c r="D147">
@@ -6143,4 +6844,2682 @@
   </sortState>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E671A632-3119-4246-8E24-3F60FDA68084}">
+  <dimension ref="A1:J147"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:A1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="57.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="39.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="22"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="str">
+        <f>"["&amp;"'"&amp;TRIM(B1)&amp;"'"&amp;", "&amp;C1&amp;", "&amp;D1&amp;", "&amp;E1&amp;"]"</f>
+        <v>['Abacate (gr)', 0.012, 0.06, 0.084]</v>
+      </c>
+      <c r="B1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" s="22" t="s">
+        <v>253</v>
+      </c>
+      <c r="D1" t="s">
+        <v>254</v>
+      </c>
+      <c r="E1" t="s">
+        <v>255</v>
+      </c>
+      <c r="G1" t="s">
+        <v>488</v>
+      </c>
+      <c r="H1" t="s">
+        <v>250</v>
+      </c>
+      <c r="I1" t="s">
+        <v>251</v>
+      </c>
+      <c r="J1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2" t="str">
+        <f t="shared" ref="A2:A65" si="0">"["&amp;"'"&amp;TRIM(B2)&amp;"'"&amp;", "&amp;C2&amp;", "&amp;D2&amp;", "&amp;E2&amp;"]"</f>
+        <v>['Abacaxi (gr)', 0.024, 0.108, 0.001]</v>
+      </c>
+      <c r="B2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C2" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="D2" t="s">
+        <v>257</v>
+      </c>
+      <c r="E2" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="str">
+        <f t="shared" si="0"/>
+        <v>['Abóbora cabotian (gr)', 0.027, 0.094, 0.007]</v>
+      </c>
+      <c r="B3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="D3" t="s">
+        <v>260</v>
+      </c>
+      <c r="E3" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="str">
+        <f t="shared" si="0"/>
+        <v>['Abóbora moranga (gr)', 0.011, 0.052, 0.008]</v>
+      </c>
+      <c r="B4" t="s">
+        <v>55</v>
+      </c>
+      <c r="C4" s="22" t="s">
+        <v>262</v>
+      </c>
+      <c r="D4" t="s">
+        <v>263</v>
+      </c>
+      <c r="E4" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" t="str">
+        <f t="shared" si="0"/>
+        <v>['Abobrinha italiana (gr)', 0.015, 0.026, 0.002]</v>
+      </c>
+      <c r="B5" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>265</v>
+      </c>
+      <c r="D5" t="s">
+        <v>266</v>
+      </c>
+      <c r="E5" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="str">
+        <f t="shared" si="0"/>
+        <v>['Açaí com xarope de guaraná e glucose (gr)', 0.034, 0.188, 0.037]</v>
+      </c>
+      <c r="B6" t="s">
+        <v>70</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>268</v>
+      </c>
+      <c r="D6" t="s">
+        <v>269</v>
+      </c>
+      <c r="E6" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="str">
+        <f t="shared" si="0"/>
+        <v>['Acarajé (gr)', 0.107, 0.167, 0.199]</v>
+      </c>
+      <c r="B7" t="s">
+        <v>160</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>271</v>
+      </c>
+      <c r="D7" t="s">
+        <v>272</v>
+      </c>
+      <c r="E7" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="str">
+        <f t="shared" si="0"/>
+        <v>['Acém moido cozido (gr)', 0.267, 0, 0.109]</v>
+      </c>
+      <c r="B8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8" s="22" t="s">
+        <v>274</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
+      </c>
+      <c r="E8" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="str">
+        <f t="shared" si="0"/>
+        <v>['Acém sem gordura cozido (gr)', 0.273, 0, 0.109]</v>
+      </c>
+      <c r="B9" t="s">
+        <v>104</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>276</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="str">
+        <f t="shared" si="0"/>
+        <v>['Amêndoa (gr)', 0.223, 0.259, 0.473]</v>
+      </c>
+      <c r="B10" t="s">
+        <v>172</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>277</v>
+      </c>
+      <c r="D10" t="s">
+        <v>278</v>
+      </c>
+      <c r="E10" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="str">
+        <f t="shared" si="0"/>
+        <v>['Amendoim torrado (gr)', 0.248, 0.164, 0.54]</v>
+      </c>
+      <c r="B11" t="s">
+        <v>165</v>
+      </c>
+      <c r="C11" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="D11" t="s">
+        <v>281</v>
+      </c>
+      <c r="E11" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="str">
+        <f t="shared" si="0"/>
+        <v>['Arroz carreteiro (gr)', 0.122, 0.101, 0.071]</v>
+      </c>
+      <c r="B12" t="s">
+        <v>161</v>
+      </c>
+      <c r="C12" s="22" t="s">
+        <v>283</v>
+      </c>
+      <c r="D12" t="s">
+        <v>284</v>
+      </c>
+      <c r="E12" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="str">
+        <f t="shared" si="0"/>
+        <v>['Arroz integral (gr)', 0.058, 0.226, 0.01]</v>
+      </c>
+      <c r="B13" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="22" t="s">
+        <v>286</v>
+      </c>
+      <c r="D13" t="s">
+        <v>287</v>
+      </c>
+      <c r="E13" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="str">
+        <f t="shared" si="0"/>
+        <v>['Arroz tipo 1 (gr)', 0.06, 0.246, 0.002]</v>
+      </c>
+      <c r="B14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>254</v>
+      </c>
+      <c r="D14" t="s">
+        <v>289</v>
+      </c>
+      <c r="E14" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="str">
+        <f t="shared" si="0"/>
+        <v>['Arroz tipo 2 (gr)', 0.026, 0.247, 0.004]</v>
+      </c>
+      <c r="B15" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>266</v>
+      </c>
+      <c r="D15" t="s">
+        <v>290</v>
+      </c>
+      <c r="E15" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="str">
+        <f t="shared" si="0"/>
+        <v>['Atum conserva em óleo (gr)', 0.262, 0, 0.06]</v>
+      </c>
+      <c r="B16" t="s">
+        <v>94</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>292</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+      <c r="E16" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" t="str">
+        <f t="shared" si="0"/>
+        <v>['Atum fresco (gr)', 0.257, 0, 0.009]</v>
+      </c>
+      <c r="B17" t="s">
+        <v>95</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>293</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
+      </c>
+      <c r="E17" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" t="str">
+        <f t="shared" si="0"/>
+        <v>['Aveia em flocos (gr)', 0.222, 0.583, 0.085]</v>
+      </c>
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="22" t="s">
+        <v>295</v>
+      </c>
+      <c r="D18" t="s">
+        <v>296</v>
+      </c>
+      <c r="E18" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19" t="str">
+        <f t="shared" si="0"/>
+        <v>['Azeite de dendê (gr)', 0, 0, 1]</v>
+      </c>
+      <c r="B19" t="s">
+        <v>90</v>
+      </c>
+      <c r="C19" s="22">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" t="str">
+        <f t="shared" si="0"/>
+        <v>['Azeite de oliva (gr)', 0, 0, 1]</v>
+      </c>
+      <c r="B20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C20" s="22">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" t="str">
+        <f t="shared" si="0"/>
+        <v>['Azeitona preta (gr)', 0.019, 0.049, 0.203]</v>
+      </c>
+      <c r="B21" t="s">
+        <v>157</v>
+      </c>
+      <c r="C21" s="22" t="s">
+        <v>298</v>
+      </c>
+      <c r="D21" t="s">
+        <v>299</v>
+      </c>
+      <c r="E21" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" t="str">
+        <f t="shared" si="0"/>
+        <v>['Azeitona verde (gr)', 0.014, 0.036, 0.142]</v>
+      </c>
+      <c r="B22" t="s">
+        <v>158</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>301</v>
+      </c>
+      <c r="D22" t="s">
+        <v>302</v>
+      </c>
+      <c r="E22" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" t="str">
+        <f t="shared" si="0"/>
+        <v>['Bacalhau salgado (gr)', 0.29, 0, 0.013]</v>
+      </c>
+      <c r="B23" t="s">
+        <v>96</v>
+      </c>
+      <c r="C23" s="22" t="s">
+        <v>304</v>
+      </c>
+      <c r="D23">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" t="str">
+        <f t="shared" si="0"/>
+        <v>['Banana da terra (gr)', 0.056, 0.295, 0.002]</v>
+      </c>
+      <c r="B24" t="s">
+        <v>71</v>
+      </c>
+      <c r="C24" s="22" t="s">
+        <v>306</v>
+      </c>
+      <c r="D24" t="s">
+        <v>307</v>
+      </c>
+      <c r="E24" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" t="str">
+        <f t="shared" si="0"/>
+        <v>['Banana prata (gr)', 0.045, 0.227, 0.001]</v>
+      </c>
+      <c r="B25" t="s">
+        <v>72</v>
+      </c>
+      <c r="C25" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="D25" t="s">
+        <v>309</v>
+      </c>
+      <c r="E25" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" t="str">
+        <f t="shared" si="0"/>
+        <v>['Batata baroa (gr)', 0.033, 0.166, 0.002]</v>
+      </c>
+      <c r="B26" t="s">
+        <v>57</v>
+      </c>
+      <c r="C26" s="22" t="s">
+        <v>310</v>
+      </c>
+      <c r="D26" t="s">
+        <v>311</v>
+      </c>
+      <c r="E26" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" t="str">
+        <f t="shared" si="0"/>
+        <v>['Batata doce (gr)', 0.029, 0.161, 0.001]</v>
+      </c>
+      <c r="B27" t="s">
+        <v>58</v>
+      </c>
+      <c r="C27" s="22" t="s">
+        <v>312</v>
+      </c>
+      <c r="D27" t="s">
+        <v>313</v>
+      </c>
+      <c r="E27" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" t="str">
+        <f t="shared" si="0"/>
+        <v>['Batata inglesa (cozida) (gr)', 0.027, 0.105, 0]</v>
+      </c>
+      <c r="B28" t="s">
+        <v>59</v>
+      </c>
+      <c r="C28" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="D28" t="s">
+        <v>314</v>
+      </c>
+      <c r="E28">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" t="str">
+        <f t="shared" si="0"/>
+        <v>['Batata inglesa (frita) (gr)', 0.095, 0.312, 0.131]</v>
+      </c>
+      <c r="B29" t="s">
+        <v>60</v>
+      </c>
+      <c r="C29" s="22" t="s">
+        <v>315</v>
+      </c>
+      <c r="D29" t="s">
+        <v>316</v>
+      </c>
+      <c r="E29" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" t="str">
+        <f t="shared" si="0"/>
+        <v>['Batata inglesa (sauté) (gr)', 0.031, 0.123, 0.009]</v>
+      </c>
+      <c r="B30" t="s">
+        <v>61</v>
+      </c>
+      <c r="C30" s="22" t="s">
+        <v>318</v>
+      </c>
+      <c r="D30" t="s">
+        <v>319</v>
+      </c>
+      <c r="E30" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" t="str">
+        <f t="shared" si="0"/>
+        <v>['Bebida láctea de pêssego (gr)', 0.03, 0.066, 0.019]</v>
+      </c>
+      <c r="B31" t="s">
+        <v>142</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>320</v>
+      </c>
+      <c r="D31" t="s">
+        <v>321</v>
+      </c>
+      <c r="E31" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" t="str">
+        <f t="shared" si="0"/>
+        <v>['Biscoito de maisena doce (gr)', 0.175, 0.658, 0.12]</v>
+      </c>
+      <c r="B32" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="22" t="s">
+        <v>322</v>
+      </c>
+      <c r="D32" t="s">
+        <v>323</v>
+      </c>
+      <c r="E32" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" t="str">
+        <f t="shared" si="0"/>
+        <v>['Biscoito de polvilho doce (gr)', 0.114, 0.705, 0.122]</v>
+      </c>
+      <c r="B33" t="s">
+        <v>62</v>
+      </c>
+      <c r="C33" s="22" t="s">
+        <v>325</v>
+      </c>
+      <c r="D33" t="s">
+        <v>326</v>
+      </c>
+      <c r="E33" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" t="str">
+        <f t="shared" si="0"/>
+        <v>['Biscoito salgado (cream cracker) (gr)', 0.187, 0.601, 0.144]</v>
+      </c>
+      <c r="B34" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" s="22" t="s">
+        <v>327</v>
+      </c>
+      <c r="D34" t="s">
+        <v>328</v>
+      </c>
+      <c r="E34" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" t="str">
+        <f t="shared" si="0"/>
+        <v>['Bisteca de porco frita (gr)', 0.337, 0, 0.185]</v>
+      </c>
+      <c r="B35" t="s">
+        <v>136</v>
+      </c>
+      <c r="C35" s="22" t="s">
+        <v>330</v>
+      </c>
+      <c r="D35">
+        <v>0</v>
+      </c>
+      <c r="E35" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" t="str">
+        <f t="shared" si="0"/>
+        <v>['Bolo de Aipim (gr)', 0.104, 0.419, 0.127]</v>
+      </c>
+      <c r="B36" t="s">
+        <v>46</v>
+      </c>
+      <c r="C36" s="22" t="s">
+        <v>332</v>
+      </c>
+      <c r="D36" t="s">
+        <v>333</v>
+      </c>
+      <c r="E36" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" t="str">
+        <f t="shared" si="0"/>
+        <v>['Bolo de Milho (gr)', 0.104, 0.395, 0.124]</v>
+      </c>
+      <c r="B37" t="s">
+        <v>47</v>
+      </c>
+      <c r="C37" s="22" t="s">
+        <v>332</v>
+      </c>
+      <c r="D37" t="s">
+        <v>335</v>
+      </c>
+      <c r="E37" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" t="str">
+        <f t="shared" si="0"/>
+        <v>['Camarão Rio Grande (gr)', 0.19, 0, 0.01]</v>
+      </c>
+      <c r="B38" t="s">
+        <v>97</v>
+      </c>
+      <c r="C38" s="22" t="s">
+        <v>337</v>
+      </c>
+      <c r="D38">
+        <v>0</v>
+      </c>
+      <c r="E38" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" t="str">
+        <f t="shared" si="0"/>
+        <v>['Capa de contra-filé com gordura (grelhada) (gr)', 0.307, 0, 0.2]</v>
+      </c>
+      <c r="B39" t="s">
+        <v>105</v>
+      </c>
+      <c r="C39" s="22" t="s">
+        <v>338</v>
+      </c>
+      <c r="D39">
+        <v>0</v>
+      </c>
+      <c r="E39" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" t="str">
+        <f t="shared" si="0"/>
+        <v>['Capa de contra-file sem gordura (grelhada) (gr)', 0.351, 0, 0.1]</v>
+      </c>
+      <c r="B40" t="s">
+        <v>106</v>
+      </c>
+      <c r="C40" s="22" t="s">
+        <v>340</v>
+      </c>
+      <c r="D40">
+        <v>0</v>
+      </c>
+      <c r="E40" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" t="str">
+        <f t="shared" si="0"/>
+        <v>['Castanha-de-caju (gr)', 0.221, 0.255, 0.463]</v>
+      </c>
+      <c r="B41" t="s">
+        <v>173</v>
+      </c>
+      <c r="C41" s="22" t="s">
+        <v>342</v>
+      </c>
+      <c r="D41" t="s">
+        <v>343</v>
+      </c>
+      <c r="E41" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" t="str">
+        <f t="shared" si="0"/>
+        <v>['Charuto de repolho (gr)', 0.081, 0.089, 0.011]</v>
+      </c>
+      <c r="B42" t="s">
+        <v>162</v>
+      </c>
+      <c r="C42" s="22" t="s">
+        <v>345</v>
+      </c>
+      <c r="D42" t="s">
+        <v>346</v>
+      </c>
+      <c r="E42" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" t="str">
+        <f t="shared" si="0"/>
+        <v>['Clara de ovo (unid)', 3, 0, 0]</v>
+      </c>
+      <c r="B43" t="s">
+        <v>35</v>
+      </c>
+      <c r="C43" s="22">
+        <v>3</v>
+      </c>
+      <c r="D43">
+        <v>0</v>
+      </c>
+      <c r="E43">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" t="str">
+        <f t="shared" si="0"/>
+        <v>['Coco (gr)', 0.05, 0.091, 0.42]</v>
+      </c>
+      <c r="B44" t="s">
+        <v>174</v>
+      </c>
+      <c r="C44" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="D44" t="s">
+        <v>348</v>
+      </c>
+      <c r="E44" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" t="str">
+        <f t="shared" si="0"/>
+        <v>['Contra-filé (grelhado) (gr)', 0.299, 0, 0.163]</v>
+      </c>
+      <c r="B45" t="s">
+        <v>108</v>
+      </c>
+      <c r="C45" s="22" t="s">
+        <v>350</v>
+      </c>
+      <c r="D45">
+        <v>0</v>
+      </c>
+      <c r="E45" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" t="str">
+        <f t="shared" si="0"/>
+        <v>['Contra-filé à milanesa (gr)', 0.221, 0.107, 0.24]</v>
+      </c>
+      <c r="B46" t="s">
+        <v>107</v>
+      </c>
+      <c r="C46" s="22" t="s">
+        <v>342</v>
+      </c>
+      <c r="D46" t="s">
+        <v>271</v>
+      </c>
+      <c r="E46" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" t="str">
+        <f t="shared" si="0"/>
+        <v>['Contra-filé com gordura (grelhado) (gr)', 0.324, 0, 0.155]</v>
+      </c>
+      <c r="B47" t="s">
+        <v>109</v>
+      </c>
+      <c r="C47" s="22" t="s">
+        <v>353</v>
+      </c>
+      <c r="D47">
+        <v>0</v>
+      </c>
+      <c r="E47" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" t="str">
+        <f t="shared" si="0"/>
+        <v>['Costela de porco assada (gr)', 0.302, 0, 0.303]</v>
+      </c>
+      <c r="B48" t="s">
+        <v>137</v>
+      </c>
+      <c r="C48" s="22" t="s">
+        <v>355</v>
+      </c>
+      <c r="D48">
+        <v>0</v>
+      </c>
+      <c r="E48" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" t="str">
+        <f t="shared" si="0"/>
+        <v>['Coxa de Frango com pele (gr)', 0.285, 0.001, 0.104]</v>
+      </c>
+      <c r="B49" t="s">
+        <v>124</v>
+      </c>
+      <c r="C49" s="22" t="s">
+        <v>357</v>
+      </c>
+      <c r="D49" t="s">
+        <v>258</v>
+      </c>
+      <c r="E49" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" t="str">
+        <f t="shared" si="0"/>
+        <v>['Coxa de Frango sem pele (gr)', 0.269, 0, 0.058]</v>
+      </c>
+      <c r="B50" t="s">
+        <v>125</v>
+      </c>
+      <c r="C50" s="22" t="s">
+        <v>358</v>
+      </c>
+      <c r="D50">
+        <v>0</v>
+      </c>
+      <c r="E50" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" t="str">
+        <f t="shared" si="0"/>
+        <v>['Coxão duro sem gordura (cozido) (gr)', 0.319, 0, 0.089]</v>
+      </c>
+      <c r="B51" t="s">
+        <v>110</v>
+      </c>
+      <c r="C51" s="22" t="s">
+        <v>359</v>
+      </c>
+      <c r="D51">
+        <v>0</v>
+      </c>
+      <c r="E51" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" t="str">
+        <f t="shared" si="0"/>
+        <v>['Coxão mole sem gordura (cozido) (gr)', 0.324, 0, 0.089]</v>
+      </c>
+      <c r="B52" t="s">
+        <v>111</v>
+      </c>
+      <c r="C52" s="22" t="s">
+        <v>353</v>
+      </c>
+      <c r="D52">
+        <v>0</v>
+      </c>
+      <c r="E52" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" t="str">
+        <f t="shared" si="0"/>
+        <v>['Creatina (gr)', 1, 0, 0]</v>
+      </c>
+      <c r="B53" t="s">
+        <v>38</v>
+      </c>
+      <c r="C53" s="22">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>0</v>
+      </c>
+      <c r="E53">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" t="str">
+        <f t="shared" si="0"/>
+        <v>['Creme de Leite (gr)', 0.021, 0.039, 0.225]</v>
+      </c>
+      <c r="B54" t="s">
+        <v>143</v>
+      </c>
+      <c r="C54" s="22" t="s">
+        <v>360</v>
+      </c>
+      <c r="D54" t="s">
+        <v>361</v>
+      </c>
+      <c r="E54" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" t="str">
+        <f t="shared" si="0"/>
+        <v>['Cupim (assado) (gr)', 0.286, 0, 0.23]</v>
+      </c>
+      <c r="B55" t="s">
+        <v>112</v>
+      </c>
+      <c r="C55" s="22" t="s">
+        <v>363</v>
+      </c>
+      <c r="D55">
+        <v>0</v>
+      </c>
+      <c r="E55" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" t="str">
+        <f t="shared" si="0"/>
+        <v>['Farinha de milho (gr)', 0.171, 0.692, 0.015]</v>
+      </c>
+      <c r="B56" t="s">
+        <v>48</v>
+      </c>
+      <c r="C56" s="22" t="s">
+        <v>365</v>
+      </c>
+      <c r="D56" t="s">
+        <v>366</v>
+      </c>
+      <c r="E56" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" t="str">
+        <f t="shared" si="0"/>
+        <v>['Farinha de trigo (gr)', 0.192, 0.657, 0.014]</v>
+      </c>
+      <c r="B57" t="s">
+        <v>49</v>
+      </c>
+      <c r="C57" s="22" t="s">
+        <v>367</v>
+      </c>
+      <c r="D57" t="s">
+        <v>368</v>
+      </c>
+      <c r="E57" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" t="str">
+        <f t="shared" si="0"/>
+        <v>['Fécula de mandioca (gr)', 0.106, 0.71, 0.003]</v>
+      </c>
+      <c r="B58" t="s">
+        <v>63</v>
+      </c>
+      <c r="C58" s="22" t="s">
+        <v>369</v>
+      </c>
+      <c r="D58" t="s">
+        <v>370</v>
+      </c>
+      <c r="E58" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" t="str">
+        <f t="shared" si="0"/>
+        <v>['Feijão carioca (gr)', 0.065, 0.119, 0.005]</v>
+      </c>
+      <c r="B59" t="s">
+        <v>166</v>
+      </c>
+      <c r="C59" s="22" t="s">
+        <v>372</v>
+      </c>
+      <c r="D59" t="s">
+        <v>373</v>
+      </c>
+      <c r="E59" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" t="str">
+        <f t="shared" si="0"/>
+        <v>['Feijão fradinho (gr)', 0.068, 0.118, 0.006]</v>
+      </c>
+      <c r="B60" t="s">
+        <v>167</v>
+      </c>
+      <c r="C60" s="22" t="s">
+        <v>375</v>
+      </c>
+      <c r="D60" t="s">
+        <v>376</v>
+      </c>
+      <c r="E60" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" t="str">
+        <f t="shared" si="0"/>
+        <v>['Feijão preto (gr)', 0.063, 0.123, 0.005]</v>
+      </c>
+      <c r="B61" t="s">
+        <v>168</v>
+      </c>
+      <c r="C61" s="22" t="s">
+        <v>378</v>
+      </c>
+      <c r="D61" t="s">
+        <v>319</v>
+      </c>
+      <c r="E61" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" t="str">
+        <f t="shared" si="0"/>
+        <v>['Feijão roxo/vermelho (gr)', 0.073, 0.113, 0.005]</v>
+      </c>
+      <c r="B62" t="s">
+        <v>169</v>
+      </c>
+      <c r="C62" s="22" t="s">
+        <v>379</v>
+      </c>
+      <c r="D62" t="s">
+        <v>380</v>
+      </c>
+      <c r="E62" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63" t="str">
+        <f t="shared" si="0"/>
+        <v>['Feijoada (gr)', 0.102, 0.102, 0.065]</v>
+      </c>
+      <c r="B63" t="s">
+        <v>163</v>
+      </c>
+      <c r="C63" s="22" t="s">
+        <v>381</v>
+      </c>
+      <c r="D63" t="s">
+        <v>381</v>
+      </c>
+      <c r="E63" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" t="str">
+        <f t="shared" si="0"/>
+        <v>['Fígado (grelhado) (gr)', 0.304, 0.037, 0.09]</v>
+      </c>
+      <c r="B64" t="s">
+        <v>113</v>
+      </c>
+      <c r="C64" s="22" t="s">
+        <v>382</v>
+      </c>
+      <c r="D64" t="s">
+        <v>270</v>
+      </c>
+      <c r="E64" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" t="str">
+        <f t="shared" si="0"/>
+        <v>['Filé de Peito de Frango (cozido) (gr)', 0.315, 0, 0.032]</v>
+      </c>
+      <c r="B65" t="s">
+        <v>127</v>
+      </c>
+      <c r="C65" s="22" t="s">
+        <v>384</v>
+      </c>
+      <c r="D65">
+        <v>0</v>
+      </c>
+      <c r="E65" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" t="str">
+        <f t="shared" ref="A66:A129" si="1">"["&amp;"'"&amp;TRIM(B66)&amp;"'"&amp;", "&amp;C66&amp;", "&amp;D66&amp;", "&amp;E66&amp;"]"</f>
+        <v>['Filé de Peito de Frango (grelhado) (gr)', 0.32, 0, 0.025]</v>
+      </c>
+      <c r="B66" t="s">
+        <v>128</v>
+      </c>
+      <c r="C66" s="22" t="s">
+        <v>386</v>
+      </c>
+      <c r="D66">
+        <v>0</v>
+      </c>
+      <c r="E66" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" t="str">
+        <f t="shared" si="1"/>
+        <v>['Filé de Peito de Frango à milanesa (gr)', 0.294, 0.066, 0.078]</v>
+      </c>
+      <c r="B67" t="s">
+        <v>126</v>
+      </c>
+      <c r="C67" s="22" t="s">
+        <v>388</v>
+      </c>
+      <c r="D67" t="s">
+        <v>321</v>
+      </c>
+      <c r="E67" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" t="str">
+        <f t="shared" si="1"/>
+        <v>['Filé de Salmão com pele (grelhado) (gr)', 0.239, 0, 0.14]</v>
+      </c>
+      <c r="B68" t="s">
+        <v>99</v>
+      </c>
+      <c r="C68" s="22" t="s">
+        <v>390</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" t="str">
+        <f t="shared" si="1"/>
+        <v>['File de Salmão sem pele (grelhado) (gr)', 0.261, 0, 0.145]</v>
+      </c>
+      <c r="B69" t="s">
+        <v>100</v>
+      </c>
+      <c r="C69" s="22" t="s">
+        <v>392</v>
+      </c>
+      <c r="D69">
+        <v>0</v>
+      </c>
+      <c r="E69" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" t="str">
+        <f t="shared" si="1"/>
+        <v>['Filé mingnon sem gordura (grelhado) (gr)', 0.328, 0, 0.088]</v>
+      </c>
+      <c r="B70" t="s">
+        <v>114</v>
+      </c>
+      <c r="C70" s="22" t="s">
+        <v>394</v>
+      </c>
+      <c r="D70">
+        <v>0</v>
+      </c>
+      <c r="E70" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" t="str">
+        <f t="shared" si="1"/>
+        <v>['Fraldinha com gordura (cozida) (gr)', 0.242, 0, 0.26]</v>
+      </c>
+      <c r="B71" t="s">
+        <v>115</v>
+      </c>
+      <c r="C71" s="22" t="s">
+        <v>396</v>
+      </c>
+      <c r="D71">
+        <v>0</v>
+      </c>
+      <c r="E71" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" t="str">
+        <f t="shared" si="1"/>
+        <v>['Gergelim (gr)', 0.239, 0.189, 0.504]</v>
+      </c>
+      <c r="B72" t="s">
+        <v>175</v>
+      </c>
+      <c r="C72" s="22" t="s">
+        <v>390</v>
+      </c>
+      <c r="D72" t="s">
+        <v>398</v>
+      </c>
+      <c r="E72" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" t="str">
+        <f t="shared" si="1"/>
+        <v>['Goiaba branca (gr)', 0.025, 0.109, 0.005]</v>
+      </c>
+      <c r="B73" t="s">
+        <v>73</v>
+      </c>
+      <c r="C73" s="22" t="s">
+        <v>387</v>
+      </c>
+      <c r="D73" t="s">
+        <v>275</v>
+      </c>
+      <c r="E73" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74" t="str">
+        <f t="shared" si="1"/>
+        <v>['Goiaba vermelha (gr)', 0.027, 0.114, 0.004]</v>
+      </c>
+      <c r="B74" t="s">
+        <v>74</v>
+      </c>
+      <c r="C74" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="D74" t="s">
+        <v>325</v>
+      </c>
+      <c r="E74" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" t="str">
+        <f t="shared" si="1"/>
+        <v>['Granola Diet (gr)', 0.1, 0.6, 0.1]</v>
+      </c>
+      <c r="B75" t="s">
+        <v>180</v>
+      </c>
+      <c r="C75" s="22" t="s">
+        <v>341</v>
+      </c>
+      <c r="D75" t="s">
+        <v>400</v>
+      </c>
+      <c r="E75" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" t="str">
+        <f t="shared" si="1"/>
+        <v>['Iogurte natural (gr)', 0.043, 0.017, 0.03]</v>
+      </c>
+      <c r="B76" t="s">
+        <v>144</v>
+      </c>
+      <c r="C76" s="22" t="s">
+        <v>401</v>
+      </c>
+      <c r="D76" t="s">
+        <v>402</v>
+      </c>
+      <c r="E76" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" t="str">
+        <f t="shared" si="1"/>
+        <v>['Iogurte natural desnatado (gr)', 0.045, 0.051, 0.003]</v>
+      </c>
+      <c r="B77" t="s">
+        <v>145</v>
+      </c>
+      <c r="C77" s="22" t="s">
+        <v>308</v>
+      </c>
+      <c r="D77" t="s">
+        <v>403</v>
+      </c>
+      <c r="E77" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" t="str">
+        <f t="shared" si="1"/>
+        <v>['Kiwi (gr)', 0.027, 0.101, 0.006]</v>
+      </c>
+      <c r="B78" t="s">
+        <v>75</v>
+      </c>
+      <c r="C78" s="22" t="s">
+        <v>259</v>
+      </c>
+      <c r="D78" t="s">
+        <v>284</v>
+      </c>
+      <c r="E78" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" t="str">
+        <f t="shared" si="1"/>
+        <v>['Lagarto (cozido) (gr)', 0.329, 0, 0.091]</v>
+      </c>
+      <c r="B79" t="s">
+        <v>116</v>
+      </c>
+      <c r="C79" s="22" t="s">
+        <v>404</v>
+      </c>
+      <c r="D79">
+        <v>0</v>
+      </c>
+      <c r="E79" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" t="str">
+        <f t="shared" si="1"/>
+        <v>['Laranja baía (suco) (ml)', 0.018, 0.076, 0]</v>
+      </c>
+      <c r="B80" t="s">
+        <v>76</v>
+      </c>
+      <c r="C80" s="22" t="s">
+        <v>405</v>
+      </c>
+      <c r="D80" t="s">
+        <v>406</v>
+      </c>
+      <c r="E80">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" t="str">
+        <f t="shared" si="1"/>
+        <v>['Laranja da terra (suco) (ml)', 0.019, 0.084, 0.001]</v>
+      </c>
+      <c r="B81" t="s">
+        <v>77</v>
+      </c>
+      <c r="C81" s="22" t="s">
+        <v>298</v>
+      </c>
+      <c r="D81" t="s">
+        <v>255</v>
+      </c>
+      <c r="E81" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" t="str">
+        <f t="shared" si="1"/>
+        <v>['Laranja lima (suco) (ml)', 0.018, 0.08, 0.001]</v>
+      </c>
+      <c r="B82" t="s">
+        <v>78</v>
+      </c>
+      <c r="C82" s="22" t="s">
+        <v>405</v>
+      </c>
+      <c r="D82" t="s">
+        <v>407</v>
+      </c>
+      <c r="E82" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" t="str">
+        <f t="shared" si="1"/>
+        <v>['Leite condensado (gr)', 0.148, 0.499, 0.067]</v>
+      </c>
+      <c r="B83" t="s">
+        <v>146</v>
+      </c>
+      <c r="C83" s="22" t="s">
+        <v>408</v>
+      </c>
+      <c r="D83" t="s">
+        <v>409</v>
+      </c>
+      <c r="E83" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" t="str">
+        <f t="shared" si="1"/>
+        <v>['Leite em pó desnatado (gr)', 0.413, 0.464, 0.009]</v>
+      </c>
+      <c r="B84" t="s">
+        <v>147</v>
+      </c>
+      <c r="C84" s="22" t="s">
+        <v>411</v>
+      </c>
+      <c r="D84" t="s">
+        <v>412</v>
+      </c>
+      <c r="E84" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" t="str">
+        <f t="shared" si="1"/>
+        <v>['Lentilha cozida (gr)', 0.083, 0.143, 0.005]</v>
+      </c>
+      <c r="B85" t="s">
+        <v>170</v>
+      </c>
+      <c r="C85" s="22" t="s">
+        <v>413</v>
+      </c>
+      <c r="D85" t="s">
+        <v>414</v>
+      </c>
+      <c r="E85" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" t="str">
+        <f t="shared" si="1"/>
+        <v>['Lingüiça de Frango (frita) (gr)', 0.183, 0, 0.185]</v>
+      </c>
+      <c r="B86" t="s">
+        <v>131</v>
+      </c>
+      <c r="C86" s="22" t="s">
+        <v>415</v>
+      </c>
+      <c r="D86">
+        <v>0</v>
+      </c>
+      <c r="E86" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" t="str">
+        <f t="shared" si="1"/>
+        <v>['Lingüiça de frango (grelhada) (gr)', 0.182, 0, 0.184]</v>
+      </c>
+      <c r="B87" t="s">
+        <v>132</v>
+      </c>
+      <c r="C87" s="22" t="s">
+        <v>416</v>
+      </c>
+      <c r="D87">
+        <v>0</v>
+      </c>
+      <c r="E87" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" t="str">
+        <f t="shared" si="1"/>
+        <v>['Lingüiça de porco (frita) (gr)', 0.205, 0, 0.213]</v>
+      </c>
+      <c r="B88" t="s">
+        <v>133</v>
+      </c>
+      <c r="C88" s="22" t="s">
+        <v>418</v>
+      </c>
+      <c r="D88">
+        <v>0</v>
+      </c>
+      <c r="E88" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" t="str">
+        <f t="shared" si="1"/>
+        <v>['Lingüiça de porco (grelhada) (gr)', 0.232, 0, 0.219]</v>
+      </c>
+      <c r="B89" t="s">
+        <v>134</v>
+      </c>
+      <c r="C89" s="22" t="s">
+        <v>420</v>
+      </c>
+      <c r="D89">
+        <v>0</v>
+      </c>
+      <c r="E89" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" t="str">
+        <f t="shared" si="1"/>
+        <v>['Linhaça (gr)', 0.195, 0.379, 0.323]</v>
+      </c>
+      <c r="B90" t="s">
+        <v>176</v>
+      </c>
+      <c r="C90" s="22" t="s">
+        <v>422</v>
+      </c>
+      <c r="D90" t="s">
+        <v>423</v>
+      </c>
+      <c r="E90" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" t="str">
+        <f t="shared" si="1"/>
+        <v>['Lombo de porco assado (gr)', 0.357, 0, 0.064]</v>
+      </c>
+      <c r="B91" t="s">
+        <v>138</v>
+      </c>
+      <c r="C91" s="22" t="s">
+        <v>425</v>
+      </c>
+      <c r="D91">
+        <v>0</v>
+      </c>
+      <c r="E91" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" t="str">
+        <f t="shared" si="1"/>
+        <v>['Maçã Argentina (gr)', 0.023, 0.145, 0.002]</v>
+      </c>
+      <c r="B92" t="s">
+        <v>79</v>
+      </c>
+      <c r="C92" s="22" t="s">
+        <v>427</v>
+      </c>
+      <c r="D92" t="s">
+        <v>393</v>
+      </c>
+      <c r="E92" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" t="str">
+        <f t="shared" si="1"/>
+        <v>['Macarrão (gr)', 0.197, 0.682, 0.013]</v>
+      </c>
+      <c r="B93" t="s">
+        <v>50</v>
+      </c>
+      <c r="C93" s="22" t="s">
+        <v>428</v>
+      </c>
+      <c r="D93" t="s">
+        <v>429</v>
+      </c>
+      <c r="E93" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" t="str">
+        <f t="shared" si="1"/>
+        <v>['Maionese com ovos (gr)', 0.016, 0.069, 0.305]</v>
+      </c>
+      <c r="B94" t="s">
+        <v>159</v>
+      </c>
+      <c r="C94" s="22" t="s">
+        <v>430</v>
+      </c>
+      <c r="D94" t="s">
+        <v>431</v>
+      </c>
+      <c r="E94" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" t="str">
+        <f t="shared" si="1"/>
+        <v>['Mamão Formosa (gr)', 0.022, 0.101, 0.001]</v>
+      </c>
+      <c r="B95" t="s">
+        <v>80</v>
+      </c>
+      <c r="C95" s="22" t="s">
+        <v>433</v>
+      </c>
+      <c r="D95" t="s">
+        <v>284</v>
+      </c>
+      <c r="E95" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" t="str">
+        <f t="shared" si="1"/>
+        <v>['Mamão Papaia (gr)', 0.018, 0.091, 0.001]</v>
+      </c>
+      <c r="B96" t="s">
+        <v>81</v>
+      </c>
+      <c r="C96" s="22" t="s">
+        <v>405</v>
+      </c>
+      <c r="D96" t="s">
+        <v>348</v>
+      </c>
+      <c r="E96" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97" t="str">
+        <f t="shared" si="1"/>
+        <v>['Maminha (grelhada) (gr)', 0.307, 0, 0.024]</v>
+      </c>
+      <c r="B97" t="s">
+        <v>117</v>
+      </c>
+      <c r="C97" s="22" t="s">
+        <v>338</v>
+      </c>
+      <c r="D97">
+        <v>0</v>
+      </c>
+      <c r="E97" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98" t="str">
+        <f t="shared" si="1"/>
+        <v>['Mandioca (cozida) (gr)', 0.044, 0.263, 0.003]</v>
+      </c>
+      <c r="B98" t="s">
+        <v>64</v>
+      </c>
+      <c r="C98" s="22" t="s">
+        <v>434</v>
+      </c>
+      <c r="D98" t="s">
+        <v>435</v>
+      </c>
+      <c r="E98" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99" t="str">
+        <f t="shared" si="1"/>
+        <v>['Mandioca (frita) (gr)', 0.077, 0.44, 0.112]</v>
+      </c>
+      <c r="B99" t="s">
+        <v>65</v>
+      </c>
+      <c r="C99" s="22" t="s">
+        <v>436</v>
+      </c>
+      <c r="D99" t="s">
+        <v>437</v>
+      </c>
+      <c r="E99" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100" t="str">
+        <f t="shared" si="1"/>
+        <v>['Manteiga com sal (gr)', 0.004, 0.001, 0.824]</v>
+      </c>
+      <c r="B100" t="s">
+        <v>92</v>
+      </c>
+      <c r="C100" s="22" t="s">
+        <v>291</v>
+      </c>
+      <c r="D100" t="s">
+        <v>258</v>
+      </c>
+      <c r="E100" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101" t="str">
+        <f t="shared" si="1"/>
+        <v>['Manteiga sem sal (gr)', 0.004, 0, 0.86]</v>
+      </c>
+      <c r="B101" t="s">
+        <v>93</v>
+      </c>
+      <c r="C101" s="22" t="s">
+        <v>291</v>
+      </c>
+      <c r="D101">
+        <v>0</v>
+      </c>
+      <c r="E101" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102" t="str">
+        <f t="shared" si="1"/>
+        <v>['Melão (gr)', 0.016, 0.066, 0]</v>
+      </c>
+      <c r="B102" t="s">
+        <v>82</v>
+      </c>
+      <c r="C102" s="22" t="s">
+        <v>430</v>
+      </c>
+      <c r="D102" t="s">
+        <v>321</v>
+      </c>
+      <c r="E102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103" t="str">
+        <f t="shared" si="1"/>
+        <v>['Milho verde (gr)', 0.053, 0.15, 0.024]</v>
+      </c>
+      <c r="B103" t="s">
+        <v>51</v>
+      </c>
+      <c r="C103" s="22" t="s">
+        <v>441</v>
+      </c>
+      <c r="D103" t="s">
+        <v>442</v>
+      </c>
+      <c r="E103" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104" t="str">
+        <f t="shared" si="1"/>
+        <v>['Miolo de alcatra sem gordura (grelhado) (gr)', 0.319, 0, 0.116]</v>
+      </c>
+      <c r="B104" t="s">
+        <v>118</v>
+      </c>
+      <c r="C104" s="22" t="s">
+        <v>359</v>
+      </c>
+      <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105" t="str">
+        <f t="shared" si="1"/>
+        <v>['Morango (gr)', 0.018, 0.06, 0.003]</v>
+      </c>
+      <c r="B105" t="s">
+        <v>83</v>
+      </c>
+      <c r="C105" s="22" t="s">
+        <v>405</v>
+      </c>
+      <c r="D105" t="s">
+        <v>254</v>
+      </c>
+      <c r="E105" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106" t="str">
+        <f t="shared" si="1"/>
+        <v>['Mortadela (gr)', 0.127, 0.051, 0.216]</v>
+      </c>
+      <c r="B106" t="s">
+        <v>135</v>
+      </c>
+      <c r="C106" s="22" t="s">
+        <v>334</v>
+      </c>
+      <c r="D106" t="s">
+        <v>403</v>
+      </c>
+      <c r="E106" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107" t="str">
+        <f t="shared" si="1"/>
+        <v>['Músculo sem gordura (cozido) (gr)', 0.312, 0, 0.067]</v>
+      </c>
+      <c r="B107" t="s">
+        <v>119</v>
+      </c>
+      <c r="C107" s="22" t="s">
+        <v>316</v>
+      </c>
+      <c r="D107">
+        <v>0</v>
+      </c>
+      <c r="E107" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108" t="str">
+        <f t="shared" si="1"/>
+        <v>['Noz (gr)', 0.163, 0.161, 0.594]</v>
+      </c>
+      <c r="B108" t="s">
+        <v>178</v>
+      </c>
+      <c r="C108" s="22" t="s">
+        <v>351</v>
+      </c>
+      <c r="D108" t="s">
+        <v>313</v>
+      </c>
+      <c r="E108" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109" t="str">
+        <f t="shared" si="1"/>
+        <v>['Omelete de queijo (gr)', 0.157, 0.004, 0.22]</v>
+      </c>
+      <c r="B109" t="s">
+        <v>155</v>
+      </c>
+      <c r="C109" s="22" t="s">
+        <v>446</v>
+      </c>
+      <c r="D109" t="s">
+        <v>291</v>
+      </c>
+      <c r="E109" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110" t="str">
+        <f t="shared" si="1"/>
+        <v>['Ovo (unid)', 6333, 0.666, 5666]</v>
+      </c>
+      <c r="B110" t="s">
+        <v>34</v>
+      </c>
+      <c r="C110" s="22">
+        <v>6333</v>
+      </c>
+      <c r="D110" t="s">
+        <v>448</v>
+      </c>
+      <c r="E110" s="38">
+        <v>5666</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111" t="str">
+        <f t="shared" si="1"/>
+        <v>['Ovo de codorna (gr)', 0.138, 0.007, 0.127]</v>
+      </c>
+      <c r="B111" t="s">
+        <v>156</v>
+      </c>
+      <c r="C111" s="22" t="s">
+        <v>449</v>
+      </c>
+      <c r="D111" t="s">
+        <v>261</v>
+      </c>
+      <c r="E111" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112" t="str">
+        <f t="shared" si="1"/>
+        <v>['Paçoca (gr)', 0.225, 0.458, 0.261]</v>
+      </c>
+      <c r="B112" t="s">
+        <v>171</v>
+      </c>
+      <c r="C112" s="22" t="s">
+        <v>362</v>
+      </c>
+      <c r="D112" t="s">
+        <v>450</v>
+      </c>
+      <c r="E112" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113" t="str">
+        <f t="shared" si="1"/>
+        <v>['Paleta sem gordura (cozida) (gr)', 0.297, 0, 0.074]</v>
+      </c>
+      <c r="B113" t="s">
+        <v>120</v>
+      </c>
+      <c r="C113" s="22" t="s">
+        <v>451</v>
+      </c>
+      <c r="D113">
+        <v>0</v>
+      </c>
+      <c r="E113" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114" t="str">
+        <f t="shared" si="1"/>
+        <v>['Pão de forma integral (gr)', 0.156, 0.437, 0.037]</v>
+      </c>
+      <c r="B114" t="s">
+        <v>52</v>
+      </c>
+      <c r="C114" s="22" t="s">
+        <v>453</v>
+      </c>
+      <c r="D114" t="s">
+        <v>454</v>
+      </c>
+      <c r="E114" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115" t="str">
+        <f t="shared" si="1"/>
+        <v>['Pão de queijo (gr)', 0.094, 0.3, 0.246]</v>
+      </c>
+      <c r="B115" t="s">
+        <v>66</v>
+      </c>
+      <c r="C115" s="22" t="s">
+        <v>260</v>
+      </c>
+      <c r="D115" t="s">
+        <v>455</v>
+      </c>
+      <c r="E115" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116" t="str">
+        <f t="shared" si="1"/>
+        <v>['Pão frances (pão de sal) (unid)', 5.5, 26, 3]</v>
+      </c>
+      <c r="B116" t="s">
+        <v>39</v>
+      </c>
+      <c r="C116" s="22" t="s">
+        <v>456</v>
+      </c>
+      <c r="D116">
+        <v>26</v>
+      </c>
+      <c r="E116">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117" t="str">
+        <f t="shared" si="1"/>
+        <v>['Pasta de amendoim (gr)', 0.25, 0.2, 0.45]</v>
+      </c>
+      <c r="B117" t="s">
+        <v>36</v>
+      </c>
+      <c r="C117" s="22" t="s">
+        <v>457</v>
+      </c>
+      <c r="D117" t="s">
+        <v>339</v>
+      </c>
+      <c r="E117" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118" t="str">
+        <f t="shared" si="1"/>
+        <v>['Patinho sem gordura (grelhado) (gr)', 0.359, 0, 0.073]</v>
+      </c>
+      <c r="B118" t="s">
+        <v>121</v>
+      </c>
+      <c r="C118" s="22" t="s">
+        <v>459</v>
+      </c>
+      <c r="D118">
+        <v>0</v>
+      </c>
+      <c r="E118" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119" t="str">
+        <f t="shared" si="1"/>
+        <v>['Pêra Park (gr)', 0.022, 0.141, 0.002]</v>
+      </c>
+      <c r="B119" t="s">
+        <v>84</v>
+      </c>
+      <c r="C119" s="22" t="s">
+        <v>433</v>
+      </c>
+      <c r="D119" t="s">
+        <v>460</v>
+      </c>
+      <c r="E119" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120" t="str">
+        <f t="shared" si="1"/>
+        <v>['Pêra Williams (gr)', 0.024, 0.123, 0.001]</v>
+      </c>
+      <c r="B120" t="s">
+        <v>85</v>
+      </c>
+      <c r="C120" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="D120" t="s">
+        <v>319</v>
+      </c>
+      <c r="E120" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121" t="str">
+        <f t="shared" si="1"/>
+        <v>['Pescada Branca (frita) (gr)', 0.274, 0, 0.118]</v>
+      </c>
+      <c r="B121" t="s">
+        <v>98</v>
+      </c>
+      <c r="C121" s="22" t="s">
+        <v>461</v>
+      </c>
+      <c r="D121">
+        <v>0</v>
+      </c>
+      <c r="E121" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122" t="str">
+        <f t="shared" si="1"/>
+        <v>['Picanha com gordura (grelhada) (gr)', 0.264, 0, 0.195]</v>
+      </c>
+      <c r="B122" t="s">
+        <v>122</v>
+      </c>
+      <c r="C122" s="22" t="s">
+        <v>462</v>
+      </c>
+      <c r="D122">
+        <v>0</v>
+      </c>
+      <c r="E122" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123" t="str">
+        <f t="shared" si="1"/>
+        <v>['Picanha sem gordura (grelhada) (gr)', 0.319, 0, 0.113]</v>
+      </c>
+      <c r="B123" t="s">
+        <v>123</v>
+      </c>
+      <c r="C123" s="22" t="s">
+        <v>359</v>
+      </c>
+      <c r="D123">
+        <v>0</v>
+      </c>
+      <c r="E123" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124" t="str">
+        <f t="shared" si="1"/>
+        <v>['Pinhão (gr)', 0.085, 0.384, 0.007]</v>
+      </c>
+      <c r="B124" t="s">
+        <v>177</v>
+      </c>
+      <c r="C124" s="22" t="s">
+        <v>297</v>
+      </c>
+      <c r="D124" t="s">
+        <v>463</v>
+      </c>
+      <c r="E124" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125" t="str">
+        <f t="shared" si="1"/>
+        <v>['Pipoca sem sal (com óleo de soja) (gr)', 0.187, 0.615, 0.159]</v>
+      </c>
+      <c r="B125" t="s">
+        <v>53</v>
+      </c>
+      <c r="C125" s="22" t="s">
+        <v>327</v>
+      </c>
+      <c r="D125" t="s">
+        <v>464</v>
+      </c>
+      <c r="E125" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126" t="str">
+        <f t="shared" si="1"/>
+        <v>['Polvilho (gr)', 0.112, 0.759, 0]</v>
+      </c>
+      <c r="B126" t="s">
+        <v>67</v>
+      </c>
+      <c r="C126" s="22" t="s">
+        <v>438</v>
+      </c>
+      <c r="D126" t="s">
+        <v>466</v>
+      </c>
+      <c r="E126">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127" t="str">
+        <f t="shared" si="1"/>
+        <v>['Presunto com capa de gordura (gr)', 0.146, 0.012, 0.068]</v>
+      </c>
+      <c r="B127" t="s">
+        <v>139</v>
+      </c>
+      <c r="C127" s="22" t="s">
+        <v>467</v>
+      </c>
+      <c r="D127" t="s">
+        <v>253</v>
+      </c>
+      <c r="E127" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128" t="str">
+        <f t="shared" si="1"/>
+        <v>['Presunto sem capa de gordura (gr)', 0.146, 0.019, 0.027]</v>
+      </c>
+      <c r="B128" t="s">
+        <v>140</v>
+      </c>
+      <c r="C128" s="22" t="s">
+        <v>467</v>
+      </c>
+      <c r="D128" t="s">
+        <v>298</v>
+      </c>
+      <c r="E128" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129" t="str">
+        <f t="shared" si="1"/>
+        <v>['Queijo minas frescal (gr)', 0.178, 0.028, 0.202]</v>
+      </c>
+      <c r="B129" t="s">
+        <v>148</v>
+      </c>
+      <c r="C129" s="22" t="s">
+        <v>468</v>
+      </c>
+      <c r="D129" t="s">
+        <v>469</v>
+      </c>
+      <c r="E129" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130" t="str">
+        <f t="shared" ref="A130:A147" si="2">"["&amp;"'"&amp;TRIM(B130)&amp;"'"&amp;", "&amp;C130&amp;", "&amp;D130&amp;", "&amp;E130&amp;"]"</f>
+        <v>['Queijo minas meia cura (gr)', 0.216, 0.031, 0.246]</v>
+      </c>
+      <c r="B130" t="s">
+        <v>149</v>
+      </c>
+      <c r="C130" s="22" t="s">
+        <v>444</v>
+      </c>
+      <c r="D130" t="s">
+        <v>318</v>
+      </c>
+      <c r="E130" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131" t="str">
+        <f t="shared" si="2"/>
+        <v>['Queijo mozarela (gr)', 0.23, 0.027, 0.252]</v>
+      </c>
+      <c r="B131" t="s">
+        <v>150</v>
+      </c>
+      <c r="C131" s="22" t="s">
+        <v>364</v>
+      </c>
+      <c r="D131" t="s">
+        <v>259</v>
+      </c>
+      <c r="E131" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132" t="str">
+        <f t="shared" si="2"/>
+        <v>['Queijo parmesão (gr)', 0.358, 0.015, 0.335]</v>
+      </c>
+      <c r="B132" t="s">
+        <v>151</v>
+      </c>
+      <c r="C132" s="22" t="s">
+        <v>472</v>
+      </c>
+      <c r="D132" t="s">
+        <v>265</v>
+      </c>
+      <c r="E132" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133" t="str">
+        <f t="shared" si="2"/>
+        <v>['Queijo prato (gr)', 0.229, 0.016, 0.291]</v>
+      </c>
+      <c r="B133" t="s">
+        <v>152</v>
+      </c>
+      <c r="C133" s="22" t="s">
+        <v>474</v>
+      </c>
+      <c r="D133" t="s">
+        <v>430</v>
+      </c>
+      <c r="E133" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134" t="str">
+        <f t="shared" si="2"/>
+        <v>['Requeijão cremoso (gr)', 0.099, 0.021, 0.234]</v>
+      </c>
+      <c r="B134" t="s">
+        <v>153</v>
+      </c>
+      <c r="C134" s="22" t="s">
+        <v>476</v>
+      </c>
+      <c r="D134" t="s">
+        <v>360</v>
+      </c>
+      <c r="E134" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135" t="str">
+        <f t="shared" si="2"/>
+        <v>['Ricota (gr)', 0.131, 0.033, 0.081]</v>
+      </c>
+      <c r="B135" t="s">
+        <v>154</v>
+      </c>
+      <c r="C135" s="22" t="s">
+        <v>317</v>
+      </c>
+      <c r="D135" t="s">
+        <v>310</v>
+      </c>
+      <c r="E135" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136" t="str">
+        <f t="shared" si="2"/>
+        <v>['Salada Verde (gr)', 0, 0, 0]</v>
+      </c>
+      <c r="B136" t="s">
+        <v>179</v>
+      </c>
+      <c r="C136" s="22">
+        <v>0</v>
+      </c>
+      <c r="D136">
+        <v>0</v>
+      </c>
+      <c r="E136">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137" t="str">
+        <f t="shared" si="2"/>
+        <v>['Salame (gr)', 0.262, 0.025, 0.306]</v>
+      </c>
+      <c r="B137" t="s">
+        <v>141</v>
+      </c>
+      <c r="C137" s="22" t="s">
+        <v>292</v>
+      </c>
+      <c r="D137" t="s">
+        <v>387</v>
+      </c>
+      <c r="E137" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138" t="str">
+        <f t="shared" si="2"/>
+        <v>['Sardinha (assada) (gr)', 0.322, 0, 0.03]</v>
+      </c>
+      <c r="B138" t="s">
+        <v>101</v>
+      </c>
+      <c r="C138" s="22" t="s">
+        <v>479</v>
+      </c>
+      <c r="D138">
+        <v>0</v>
+      </c>
+      <c r="E138" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139" t="str">
+        <f t="shared" si="2"/>
+        <v>['Sardinha (conserva em óleo) (gr)', 0.159, 0, 0.24]</v>
+      </c>
+      <c r="B139" t="s">
+        <v>102</v>
+      </c>
+      <c r="C139" s="22" t="s">
+        <v>465</v>
+      </c>
+      <c r="D139">
+        <v>0</v>
+      </c>
+      <c r="E139" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140" t="str">
+        <f t="shared" si="2"/>
+        <v>['Sobrecoxa de Frango com pele (assada) (gr)', 0.287, 0, 0.152]</v>
+      </c>
+      <c r="B140" t="s">
+        <v>129</v>
+      </c>
+      <c r="C140" s="22" t="s">
+        <v>480</v>
+      </c>
+      <c r="D140">
+        <v>0</v>
+      </c>
+      <c r="E140" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141" t="str">
+        <f t="shared" si="2"/>
+        <v>['Sobrecoxa de Frango som pele (assada) (gr)', 0.292, 0, 0.12]</v>
+      </c>
+      <c r="B141" t="s">
+        <v>130</v>
+      </c>
+      <c r="C141" s="22" t="s">
+        <v>482</v>
+      </c>
+      <c r="D141">
+        <v>0</v>
+      </c>
+      <c r="E141" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142" t="str">
+        <f t="shared" si="2"/>
+        <v>['Suco de uva concentrado (gr)', 0.018, 0.129, 0]</v>
+      </c>
+      <c r="B142" t="s">
+        <v>89</v>
+      </c>
+      <c r="C142" s="22" t="s">
+        <v>405</v>
+      </c>
+      <c r="D142" t="s">
+        <v>483</v>
+      </c>
+      <c r="E142">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143" t="str">
+        <f t="shared" si="2"/>
+        <v>['Tangerina Poncã (gr)', 0.02, 0.084, 0.001]</v>
+      </c>
+      <c r="B143" t="s">
+        <v>86</v>
+      </c>
+      <c r="C143" s="22" t="s">
+        <v>484</v>
+      </c>
+      <c r="D143" t="s">
+        <v>255</v>
+      </c>
+      <c r="E143" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144" t="str">
+        <f t="shared" si="2"/>
+        <v>['Tapioca com manteiga (gr)', 0.08, 0.556, 0.109]</v>
+      </c>
+      <c r="B144" t="s">
+        <v>164</v>
+      </c>
+      <c r="C144" s="22" t="s">
+        <v>407</v>
+      </c>
+      <c r="D144" t="s">
+        <v>485</v>
+      </c>
+      <c r="E144" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145" t="str">
+        <f t="shared" si="2"/>
+        <v>['Uva Itália (gr)', 0.024, 0.119, 0.002]</v>
+      </c>
+      <c r="B145" t="s">
+        <v>87</v>
+      </c>
+      <c r="C145" s="22" t="s">
+        <v>256</v>
+      </c>
+      <c r="D145" t="s">
+        <v>373</v>
+      </c>
+      <c r="E145" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146" t="str">
+        <f t="shared" si="2"/>
+        <v>['Uva Rubi (gr)', 0.022, 0.111, 0.002]</v>
+      </c>
+      <c r="B146" t="s">
+        <v>88</v>
+      </c>
+      <c r="C146" s="22" t="s">
+        <v>433</v>
+      </c>
+      <c r="D146" t="s">
+        <v>486</v>
+      </c>
+      <c r="E146" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147" t="str">
+        <f t="shared" si="2"/>
+        <v>['Whey 80% (gr)', 0.8, 0.066, 0]</v>
+      </c>
+      <c r="B147" t="s">
+        <v>37</v>
+      </c>
+      <c r="C147" s="22" t="s">
+        <v>487</v>
+      </c>
+      <c r="D147" t="s">
+        <v>321</v>
+      </c>
+      <c r="E147">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
+</worksheet>
 </file>
--- a/files/treinos/Jacks Mello Consultoria Lucas C (1).xlsx
+++ b/files/treinos/Jacks Mello Consultoria Lucas C (1).xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="EstaPasta_de_trabalho" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Github\fit\files\treinos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lukspc\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D5B45BA-7559-4B03-A1B0-44AD1306FE1C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC027DC2-258D-46E4-B011-E4C7F89647F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1935" yWindow="0" windowWidth="21600" windowHeight="11385" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1748,8 +1748,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1778,7 +1782,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1787,13 +1791,9 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2154,18 +2154,18 @@
       <c r="B2" s="10" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="23" t="s">
+      <c r="C2" s="24" t="s">
         <v>238</v>
       </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24"/>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
     </row>
     <row r="3" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
@@ -2320,20 +2320,20 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="25" t="s">
         <v>249</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="H2" s="33" t="s">
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="H2" s="25" t="s">
         <v>223</v>
       </c>
-      <c r="I2" s="33"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="25"/>
     </row>
     <row r="3" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
@@ -2628,20 +2628,20 @@
       <c r="L13" s="7"/>
     </row>
     <row r="16" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B16" s="33" t="s">
+      <c r="B16" s="25" t="s">
         <v>219</v>
       </c>
-      <c r="C16" s="33"/>
-      <c r="D16" s="33"/>
-      <c r="E16" s="33"/>
-      <c r="F16" s="33"/>
-      <c r="H16" s="33" t="s">
+      <c r="C16" s="25"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="H16" s="25" t="s">
         <v>247</v>
       </c>
-      <c r="I16" s="33"/>
-      <c r="J16" s="33"/>
-      <c r="K16" s="33"/>
-      <c r="L16" s="33"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="25"/>
+      <c r="K16" s="25"/>
+      <c r="L16" s="25"/>
     </row>
     <row r="17" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="s">
@@ -2948,18 +2948,18 @@
       </c>
     </row>
     <row r="30" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B30" s="33"/>
-      <c r="C30" s="33"/>
-      <c r="D30" s="33"/>
-      <c r="E30" s="33"/>
-      <c r="F30" s="33"/>
-      <c r="H30" s="33" t="s">
+      <c r="B30" s="25"/>
+      <c r="C30" s="25"/>
+      <c r="D30" s="25"/>
+      <c r="E30" s="25"/>
+      <c r="F30" s="25"/>
+      <c r="H30" s="25" t="s">
         <v>210</v>
       </c>
-      <c r="I30" s="33"/>
-      <c r="J30" s="33"/>
-      <c r="K30" s="33"/>
-      <c r="L30" s="33"/>
+      <c r="I30" s="25"/>
+      <c r="J30" s="25"/>
+      <c r="K30" s="25"/>
+      <c r="L30" s="25"/>
     </row>
     <row r="31" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B31" s="5" t="s">
@@ -3230,172 +3230,172 @@
       <c r="L41" s="7"/>
     </row>
     <row r="43" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B43" s="24" t="s">
+      <c r="B43" s="26" t="s">
         <v>8</v>
       </c>
-      <c r="C43" s="24"/>
-      <c r="D43" s="24"/>
-      <c r="E43" s="24"/>
-      <c r="F43" s="24"/>
-      <c r="G43" s="24"/>
-      <c r="H43" s="24"/>
-      <c r="I43" s="24"/>
-      <c r="J43" s="24"/>
-      <c r="K43" s="24"/>
-      <c r="L43" s="24"/>
+      <c r="C43" s="26"/>
+      <c r="D43" s="26"/>
+      <c r="E43" s="26"/>
+      <c r="F43" s="26"/>
+      <c r="G43" s="26"/>
+      <c r="H43" s="26"/>
+      <c r="I43" s="26"/>
+      <c r="J43" s="26"/>
+      <c r="K43" s="26"/>
+      <c r="L43" s="26"/>
     </row>
     <row r="44" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B44" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="C44" s="25" t="s">
+      <c r="C44" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="D44" s="26"/>
-      <c r="E44" s="26"/>
-      <c r="F44" s="26"/>
-      <c r="G44" s="26"/>
-      <c r="H44" s="26"/>
-      <c r="I44" s="26"/>
-      <c r="J44" s="26"/>
-      <c r="K44" s="26"/>
-      <c r="L44" s="27"/>
+      <c r="D44" s="28"/>
+      <c r="E44" s="28"/>
+      <c r="F44" s="28"/>
+      <c r="G44" s="28"/>
+      <c r="H44" s="28"/>
+      <c r="I44" s="28"/>
+      <c r="J44" s="28"/>
+      <c r="K44" s="28"/>
+      <c r="L44" s="29"/>
     </row>
     <row r="45" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B45" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="C45" s="25" t="s">
+      <c r="C45" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="D45" s="26"/>
-      <c r="E45" s="26"/>
-      <c r="F45" s="26"/>
-      <c r="G45" s="26"/>
-      <c r="H45" s="26"/>
-      <c r="I45" s="26"/>
-      <c r="J45" s="26"/>
-      <c r="K45" s="26"/>
-      <c r="L45" s="27"/>
+      <c r="D45" s="28"/>
+      <c r="E45" s="28"/>
+      <c r="F45" s="28"/>
+      <c r="G45" s="28"/>
+      <c r="H45" s="28"/>
+      <c r="I45" s="28"/>
+      <c r="J45" s="28"/>
+      <c r="K45" s="28"/>
+      <c r="L45" s="29"/>
     </row>
     <row r="46" spans="2:12" ht="30.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B46" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="C46" s="29" t="s">
+      <c r="C46" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="D46" s="30"/>
-      <c r="E46" s="30"/>
-      <c r="F46" s="30"/>
-      <c r="G46" s="30"/>
-      <c r="H46" s="30"/>
-      <c r="I46" s="30"/>
-      <c r="J46" s="30"/>
-      <c r="K46" s="30"/>
-      <c r="L46" s="31"/>
+      <c r="D46" s="32"/>
+      <c r="E46" s="32"/>
+      <c r="F46" s="32"/>
+      <c r="G46" s="32"/>
+      <c r="H46" s="32"/>
+      <c r="I46" s="32"/>
+      <c r="J46" s="32"/>
+      <c r="K46" s="32"/>
+      <c r="L46" s="33"/>
     </row>
     <row r="47" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B47" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C47" s="25" t="s">
+      <c r="C47" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="D47" s="26"/>
-      <c r="E47" s="26"/>
-      <c r="F47" s="26"/>
-      <c r="G47" s="26"/>
-      <c r="H47" s="26"/>
-      <c r="I47" s="26"/>
-      <c r="J47" s="26"/>
-      <c r="K47" s="26"/>
-      <c r="L47" s="27"/>
+      <c r="D47" s="28"/>
+      <c r="E47" s="28"/>
+      <c r="F47" s="28"/>
+      <c r="G47" s="28"/>
+      <c r="H47" s="28"/>
+      <c r="I47" s="28"/>
+      <c r="J47" s="28"/>
+      <c r="K47" s="28"/>
+      <c r="L47" s="29"/>
     </row>
     <row r="48" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B48" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="C48" s="25" t="s">
+      <c r="C48" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="D48" s="26"/>
-      <c r="E48" s="26"/>
-      <c r="F48" s="26"/>
-      <c r="G48" s="26"/>
-      <c r="H48" s="26"/>
-      <c r="I48" s="26"/>
-      <c r="J48" s="26"/>
-      <c r="K48" s="26"/>
-      <c r="L48" s="27"/>
+      <c r="D48" s="28"/>
+      <c r="E48" s="28"/>
+      <c r="F48" s="28"/>
+      <c r="G48" s="28"/>
+      <c r="H48" s="28"/>
+      <c r="I48" s="28"/>
+      <c r="J48" s="28"/>
+      <c r="K48" s="28"/>
+      <c r="L48" s="29"/>
     </row>
     <row r="49" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B49" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="C49" s="25" t="s">
+      <c r="C49" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="D49" s="26"/>
-      <c r="E49" s="26"/>
-      <c r="F49" s="26"/>
-      <c r="G49" s="26"/>
-      <c r="H49" s="26"/>
-      <c r="I49" s="26"/>
-      <c r="J49" s="26"/>
-      <c r="K49" s="26"/>
-      <c r="L49" s="27"/>
+      <c r="D49" s="28"/>
+      <c r="E49" s="28"/>
+      <c r="F49" s="28"/>
+      <c r="G49" s="28"/>
+      <c r="H49" s="28"/>
+      <c r="I49" s="28"/>
+      <c r="J49" s="28"/>
+      <c r="K49" s="28"/>
+      <c r="L49" s="29"/>
     </row>
     <row r="50" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B50" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="C50" s="25" t="s">
+      <c r="C50" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="D50" s="26"/>
-      <c r="E50" s="26"/>
-      <c r="F50" s="26"/>
-      <c r="G50" s="26"/>
-      <c r="H50" s="26"/>
-      <c r="I50" s="26"/>
-      <c r="J50" s="26"/>
-      <c r="K50" s="26"/>
-      <c r="L50" s="27"/>
+      <c r="D50" s="28"/>
+      <c r="E50" s="28"/>
+      <c r="F50" s="28"/>
+      <c r="G50" s="28"/>
+      <c r="H50" s="28"/>
+      <c r="I50" s="28"/>
+      <c r="J50" s="28"/>
+      <c r="K50" s="28"/>
+      <c r="L50" s="29"/>
     </row>
     <row r="51" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B51" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C51" s="32" t="s">
+      <c r="C51" s="34" t="s">
         <v>23</v>
       </c>
-      <c r="D51" s="32"/>
-      <c r="E51" s="32"/>
-      <c r="F51" s="32"/>
-      <c r="G51" s="32"/>
-      <c r="H51" s="32"/>
-      <c r="I51" s="32"/>
-      <c r="J51" s="32"/>
-      <c r="K51" s="32"/>
-      <c r="L51" s="32"/>
+      <c r="D51" s="34"/>
+      <c r="E51" s="34"/>
+      <c r="F51" s="34"/>
+      <c r="G51" s="34"/>
+      <c r="H51" s="34"/>
+      <c r="I51" s="34"/>
+      <c r="J51" s="34"/>
+      <c r="K51" s="34"/>
+      <c r="L51" s="34"/>
     </row>
     <row r="52" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B52" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C52" s="25" t="s">
+      <c r="C52" s="27" t="s">
         <v>25</v>
       </c>
-      <c r="D52" s="26"/>
-      <c r="E52" s="26"/>
-      <c r="F52" s="26"/>
-      <c r="G52" s="26"/>
-      <c r="H52" s="26"/>
-      <c r="I52" s="26"/>
-      <c r="J52" s="26"/>
-      <c r="K52" s="26"/>
-      <c r="L52" s="27"/>
+      <c r="D52" s="28"/>
+      <c r="E52" s="28"/>
+      <c r="F52" s="28"/>
+      <c r="G52" s="28"/>
+      <c r="H52" s="28"/>
+      <c r="I52" s="28"/>
+      <c r="J52" s="28"/>
+      <c r="K52" s="28"/>
+      <c r="L52" s="29"/>
     </row>
     <row r="54" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C54" s="2"/>
@@ -3422,25 +3422,19 @@
       <c r="L55" s="2"/>
     </row>
     <row r="56" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C56" s="28"/>
-      <c r="D56" s="28"/>
-      <c r="E56" s="28"/>
-      <c r="F56" s="28"/>
-      <c r="G56" s="28"/>
-      <c r="H56" s="28"/>
-      <c r="I56" s="28"/>
-      <c r="J56" s="28"/>
-      <c r="K56" s="28"/>
-      <c r="L56" s="28"/>
+      <c r="C56" s="30"/>
+      <c r="D56" s="30"/>
+      <c r="E56" s="30"/>
+      <c r="F56" s="30"/>
+      <c r="G56" s="30"/>
+      <c r="H56" s="30"/>
+      <c r="I56" s="30"/>
+      <c r="J56" s="30"/>
+      <c r="K56" s="30"/>
+      <c r="L56" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="B2:F2"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="B16:F16"/>
-    <mergeCell ref="H16:L16"/>
-    <mergeCell ref="B30:F30"/>
-    <mergeCell ref="H30:L30"/>
     <mergeCell ref="B43:L43"/>
     <mergeCell ref="C44:L44"/>
     <mergeCell ref="C56:L56"/>
@@ -3452,6 +3446,12 @@
     <mergeCell ref="C50:L50"/>
     <mergeCell ref="C51:L51"/>
     <mergeCell ref="C52:L52"/>
+    <mergeCell ref="B2:F2"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="B16:F16"/>
+    <mergeCell ref="H16:L16"/>
+    <mergeCell ref="B30:F30"/>
+    <mergeCell ref="H30:L30"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
@@ -3492,30 +3492,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="33" t="s">
+      <c r="B2" s="25" t="s">
         <v>193</v>
       </c>
-      <c r="C2" s="33"/>
-      <c r="D2" s="33"/>
-      <c r="E2" s="33"/>
-      <c r="F2" s="33"/>
-      <c r="G2" s="33"/>
-      <c r="I2" s="36" t="s">
+      <c r="C2" s="25"/>
+      <c r="D2" s="25"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="I2" s="35" t="s">
         <v>239</v>
       </c>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="36"/>
-      <c r="P2" s="36" t="s">
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35"/>
+      <c r="N2" s="35"/>
+      <c r="P2" s="35" t="s">
         <v>212</v>
       </c>
-      <c r="Q2" s="36"/>
-      <c r="R2" s="36"/>
-      <c r="S2" s="36"/>
-      <c r="T2" s="36"/>
-      <c r="U2" s="36"/>
+      <c r="Q2" s="35"/>
+      <c r="R2" s="35"/>
+      <c r="S2" s="35"/>
+      <c r="T2" s="35"/>
+      <c r="U2" s="35"/>
     </row>
     <row r="3" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="5" t="s">
@@ -4068,30 +4068,30 @@
       </c>
     </row>
     <row r="13" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B13" s="36" t="s">
+      <c r="B13" s="35" t="s">
         <v>213</v>
       </c>
-      <c r="C13" s="36"/>
-      <c r="D13" s="36"/>
-      <c r="E13" s="36"/>
-      <c r="F13" s="36"/>
-      <c r="G13" s="36"/>
-      <c r="I13" s="36" t="s">
+      <c r="C13" s="35"/>
+      <c r="D13" s="35"/>
+      <c r="E13" s="35"/>
+      <c r="F13" s="35"/>
+      <c r="G13" s="35"/>
+      <c r="I13" s="35" t="s">
         <v>240</v>
       </c>
-      <c r="J13" s="36"/>
-      <c r="K13" s="36"/>
-      <c r="L13" s="36"/>
-      <c r="M13" s="36"/>
-      <c r="N13" s="36"/>
-      <c r="P13" s="36" t="s">
+      <c r="J13" s="35"/>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35"/>
+      <c r="N13" s="35"/>
+      <c r="P13" s="35" t="s">
         <v>26</v>
       </c>
-      <c r="Q13" s="36"/>
-      <c r="R13" s="36"/>
-      <c r="S13" s="36"/>
-      <c r="T13" s="36"/>
-      <c r="U13" s="36"/>
+      <c r="Q13" s="35"/>
+      <c r="R13" s="35"/>
+      <c r="S13" s="35"/>
+      <c r="T13" s="35"/>
+      <c r="U13" s="35"/>
     </row>
     <row r="14" spans="2:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B14" s="5" t="s">
@@ -4634,52 +4634,52 @@
       <c r="C24" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="D24" s="34">
+      <c r="D24" s="36">
         <f>$D$11+$K$11+$R$11+$D$22+$K$22+$R$22</f>
         <v>281.18099999999998</v>
       </c>
-      <c r="E24" s="35"/>
-      <c r="F24" s="35"/>
-      <c r="G24" s="35"/>
+      <c r="E24" s="37"/>
+      <c r="F24" s="37"/>
+      <c r="G24" s="37"/>
     </row>
     <row r="25" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B25" s="3"/>
       <c r="C25" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="D25" s="34">
+      <c r="D25" s="36">
         <f>$E$11+$L$11+$S$11+$E$22+$L$22+$S$22</f>
         <v>155.77199999999996</v>
       </c>
-      <c r="E25" s="35"/>
-      <c r="F25" s="35"/>
-      <c r="G25" s="35"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
     </row>
     <row r="26" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B26" s="3"/>
       <c r="C26" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="D26" s="34">
+      <c r="D26" s="36">
         <f>$F$11+$M$11+$T$11+$F$22+$M$22+$T$22</f>
         <v>29.762000000000008</v>
       </c>
-      <c r="E26" s="35"/>
-      <c r="F26" s="35"/>
-      <c r="G26" s="35"/>
+      <c r="E26" s="37"/>
+      <c r="F26" s="37"/>
+      <c r="G26" s="37"/>
     </row>
     <row r="27" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B27" s="3"/>
       <c r="C27" s="3" t="s">
         <v>181</v>
       </c>
-      <c r="D27" s="37">
+      <c r="D27" s="38">
         <f>$G$11+$N$11+$U$11+$G$22+$N$22+$U$22</f>
         <v>2015.6699999999998</v>
       </c>
-      <c r="E27" s="35"/>
-      <c r="F27" s="35"/>
-      <c r="G27" s="35"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
     </row>
     <row r="29" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
@@ -4688,48 +4688,42 @@
       <c r="C29" s="3" t="s">
         <v>190</v>
       </c>
-      <c r="D29" s="34">
+      <c r="D29" s="36">
         <f>($D$11+$K$11+$R$11+$D$22+$K$22+$R$22)/DADOS!C11</f>
         <v>4.2961191749427039</v>
       </c>
-      <c r="E29" s="35"/>
-      <c r="F29" s="35"/>
-      <c r="G29" s="35"/>
+      <c r="E29" s="37"/>
+      <c r="F29" s="37"/>
+      <c r="G29" s="37"/>
     </row>
     <row r="30" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B30" s="3"/>
       <c r="C30" s="3" t="s">
         <v>191</v>
       </c>
-      <c r="D30" s="34">
+      <c r="D30" s="36">
         <f>($E$11+$L$11+$S$11+$E$22+$L$22+$S$22)/DADOS!C11</f>
         <v>2.3800152788388074</v>
       </c>
-      <c r="E30" s="35"/>
-      <c r="F30" s="35"/>
-      <c r="G30" s="35"/>
+      <c r="E30" s="37"/>
+      <c r="F30" s="37"/>
+      <c r="G30" s="37"/>
     </row>
     <row r="31" spans="2:21" x14ac:dyDescent="0.25">
       <c r="B31" s="3"/>
       <c r="C31" s="3" t="s">
         <v>192</v>
       </c>
-      <c r="D31" s="34">
+      <c r="D31" s="36">
         <f>($F$11+$M$11+$T$11+$F$22+$M$22+$T$22)/DADOS!C11</f>
         <v>0.45472880061115367</v>
       </c>
-      <c r="E31" s="35"/>
-      <c r="F31" s="35"/>
-      <c r="G31" s="35"/>
+      <c r="E31" s="37"/>
+      <c r="F31" s="37"/>
+      <c r="G31" s="37"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="P2:U2"/>
-    <mergeCell ref="P13:U13"/>
-    <mergeCell ref="D24:G24"/>
-    <mergeCell ref="D25:G25"/>
-    <mergeCell ref="D26:G26"/>
-    <mergeCell ref="B13:G13"/>
     <mergeCell ref="D29:G29"/>
     <mergeCell ref="D30:G30"/>
     <mergeCell ref="D31:G31"/>
@@ -4737,6 +4731,12 @@
     <mergeCell ref="I13:N13"/>
     <mergeCell ref="I2:N2"/>
     <mergeCell ref="D27:G27"/>
+    <mergeCell ref="P2:U2"/>
+    <mergeCell ref="P13:U13"/>
+    <mergeCell ref="D24:G24"/>
+    <mergeCell ref="D25:G25"/>
+    <mergeCell ref="D26:G26"/>
+    <mergeCell ref="B13:G13"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" scale="77" orientation="landscape" r:id="rId1"/>
@@ -4762,7 +4762,7 @@
   <dimension ref="A1:I147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:I1"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6851,7 +6851,7 @@
   <dimension ref="A1:J147"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6863,8 +6863,8 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="str">
-        <f>"["&amp;"'"&amp;TRIM(B1)&amp;"'"&amp;", "&amp;C1&amp;", "&amp;D1&amp;", "&amp;E1&amp;"]"</f>
-        <v>['Abacate (gr)', 0.012, 0.06, 0.084]</v>
+        <f>"["&amp;TRIM(B1)&amp;", "&amp;C1&amp;", "&amp;D1&amp;", "&amp;E1&amp;"]"</f>
+        <v>[Abacate (gr), 0.012, 0.06, 0.084]</v>
       </c>
       <c r="B1" t="s">
         <v>68</v>
@@ -6893,8 +6893,8 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="str">
-        <f t="shared" ref="A2:A65" si="0">"["&amp;"'"&amp;TRIM(B2)&amp;"'"&amp;", "&amp;C2&amp;", "&amp;D2&amp;", "&amp;E2&amp;"]"</f>
-        <v>['Abacaxi (gr)', 0.024, 0.108, 0.001]</v>
+        <f t="shared" ref="A2:A65" si="0">"["&amp;TRIM(B2)&amp;", "&amp;C2&amp;", "&amp;D2&amp;", "&amp;E2&amp;"]"</f>
+        <v>[Abacaxi (gr), 0.024, 0.108, 0.001]</v>
       </c>
       <c r="B2" t="s">
         <v>69</v>
@@ -6912,7 +6912,7 @@
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="str">
         <f t="shared" si="0"/>
-        <v>['Abóbora cabotian (gr)', 0.027, 0.094, 0.007]</v>
+        <v>[Abóbora cabotian (gr), 0.027, 0.094, 0.007]</v>
       </c>
       <c r="B3" t="s">
         <v>54</v>
@@ -6930,7 +6930,7 @@
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="str">
         <f t="shared" si="0"/>
-        <v>['Abóbora moranga (gr)', 0.011, 0.052, 0.008]</v>
+        <v>[Abóbora moranga (gr), 0.011, 0.052, 0.008]</v>
       </c>
       <c r="B4" t="s">
         <v>55</v>
@@ -6948,7 +6948,7 @@
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="str">
         <f t="shared" si="0"/>
-        <v>['Abobrinha italiana (gr)', 0.015, 0.026, 0.002]</v>
+        <v>[Abobrinha italiana (gr), 0.015, 0.026, 0.002]</v>
       </c>
       <c r="B5" t="s">
         <v>56</v>
@@ -6966,7 +6966,7 @@
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="str">
         <f t="shared" si="0"/>
-        <v>['Açaí com xarope de guaraná e glucose (gr)', 0.034, 0.188, 0.037]</v>
+        <v>[Açaí com xarope de guaraná e glucose (gr), 0.034, 0.188, 0.037]</v>
       </c>
       <c r="B6" t="s">
         <v>70</v>
@@ -6984,7 +6984,7 @@
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f t="shared" si="0"/>
-        <v>['Acarajé (gr)', 0.107, 0.167, 0.199]</v>
+        <v>[Acarajé (gr), 0.107, 0.167, 0.199]</v>
       </c>
       <c r="B7" t="s">
         <v>160</v>
@@ -7002,7 +7002,7 @@
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="str">
         <f t="shared" si="0"/>
-        <v>['Acém moido cozido (gr)', 0.267, 0, 0.109]</v>
+        <v>[Acém moido cozido (gr), 0.267, 0, 0.109]</v>
       </c>
       <c r="B8" t="s">
         <v>103</v>
@@ -7020,7 +7020,7 @@
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="str">
         <f t="shared" si="0"/>
-        <v>['Acém sem gordura cozido (gr)', 0.273, 0, 0.109]</v>
+        <v>[Acém sem gordura cozido (gr), 0.273, 0, 0.109]</v>
       </c>
       <c r="B9" t="s">
         <v>104</v>
@@ -7038,7 +7038,7 @@
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="str">
         <f t="shared" si="0"/>
-        <v>['Amêndoa (gr)', 0.223, 0.259, 0.473]</v>
+        <v>[Amêndoa (gr), 0.223, 0.259, 0.473]</v>
       </c>
       <c r="B10" t="s">
         <v>172</v>
@@ -7056,7 +7056,7 @@
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="str">
         <f t="shared" si="0"/>
-        <v>['Amendoim torrado (gr)', 0.248, 0.164, 0.54]</v>
+        <v>[Amendoim torrado (gr), 0.248, 0.164, 0.54]</v>
       </c>
       <c r="B11" t="s">
         <v>165</v>
@@ -7074,7 +7074,7 @@
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="str">
         <f t="shared" si="0"/>
-        <v>['Arroz carreteiro (gr)', 0.122, 0.101, 0.071]</v>
+        <v>[Arroz carreteiro (gr), 0.122, 0.101, 0.071]</v>
       </c>
       <c r="B12" t="s">
         <v>161</v>
@@ -7092,7 +7092,7 @@
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="str">
         <f t="shared" si="0"/>
-        <v>['Arroz integral (gr)', 0.058, 0.226, 0.01]</v>
+        <v>[Arroz integral (gr), 0.058, 0.226, 0.01]</v>
       </c>
       <c r="B13" t="s">
         <v>40</v>
@@ -7110,7 +7110,7 @@
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="str">
         <f t="shared" si="0"/>
-        <v>['Arroz tipo 1 (gr)', 0.06, 0.246, 0.002]</v>
+        <v>[Arroz tipo 1 (gr), 0.06, 0.246, 0.002]</v>
       </c>
       <c r="B14" t="s">
         <v>41</v>
@@ -7128,7 +7128,7 @@
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="str">
         <f t="shared" si="0"/>
-        <v>['Arroz tipo 2 (gr)', 0.026, 0.247, 0.004]</v>
+        <v>[Arroz tipo 2 (gr), 0.026, 0.247, 0.004]</v>
       </c>
       <c r="B15" t="s">
         <v>42</v>
@@ -7146,7 +7146,7 @@
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="str">
         <f t="shared" si="0"/>
-        <v>['Atum conserva em óleo (gr)', 0.262, 0, 0.06]</v>
+        <v>[Atum conserva em óleo (gr), 0.262, 0, 0.06]</v>
       </c>
       <c r="B16" t="s">
         <v>94</v>
@@ -7164,7 +7164,7 @@
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="str">
         <f t="shared" si="0"/>
-        <v>['Atum fresco (gr)', 0.257, 0, 0.009]</v>
+        <v>[Atum fresco (gr), 0.257, 0, 0.009]</v>
       </c>
       <c r="B17" t="s">
         <v>95</v>
@@ -7182,7 +7182,7 @@
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="str">
         <f t="shared" si="0"/>
-        <v>['Aveia em flocos (gr)', 0.222, 0.583, 0.085]</v>
+        <v>[Aveia em flocos (gr), 0.222, 0.583, 0.085]</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
@@ -7200,7 +7200,7 @@
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" t="str">
         <f t="shared" si="0"/>
-        <v>['Azeite de dendê (gr)', 0, 0, 1]</v>
+        <v>[Azeite de dendê (gr), 0, 0, 1]</v>
       </c>
       <c r="B19" t="s">
         <v>90</v>
@@ -7218,7 +7218,7 @@
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="str">
         <f t="shared" si="0"/>
-        <v>['Azeite de oliva (gr)', 0, 0, 1]</v>
+        <v>[Azeite de oliva (gr), 0, 0, 1]</v>
       </c>
       <c r="B20" t="s">
         <v>91</v>
@@ -7236,7 +7236,7 @@
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" t="str">
         <f t="shared" si="0"/>
-        <v>['Azeitona preta (gr)', 0.019, 0.049, 0.203]</v>
+        <v>[Azeitona preta (gr), 0.019, 0.049, 0.203]</v>
       </c>
       <c r="B21" t="s">
         <v>157</v>
@@ -7254,7 +7254,7 @@
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" t="str">
         <f t="shared" si="0"/>
-        <v>['Azeitona verde (gr)', 0.014, 0.036, 0.142]</v>
+        <v>[Azeitona verde (gr), 0.014, 0.036, 0.142]</v>
       </c>
       <c r="B22" t="s">
         <v>158</v>
@@ -7272,7 +7272,7 @@
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="str">
         <f t="shared" si="0"/>
-        <v>['Bacalhau salgado (gr)', 0.29, 0, 0.013]</v>
+        <v>[Bacalhau salgado (gr), 0.29, 0, 0.013]</v>
       </c>
       <c r="B23" t="s">
         <v>96</v>
@@ -7290,7 +7290,7 @@
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="str">
         <f t="shared" si="0"/>
-        <v>['Banana da terra (gr)', 0.056, 0.295, 0.002]</v>
+        <v>[Banana da terra (gr), 0.056, 0.295, 0.002]</v>
       </c>
       <c r="B24" t="s">
         <v>71</v>
@@ -7308,7 +7308,7 @@
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="str">
         <f t="shared" si="0"/>
-        <v>['Banana prata (gr)', 0.045, 0.227, 0.001]</v>
+        <v>[Banana prata (gr), 0.045, 0.227, 0.001]</v>
       </c>
       <c r="B25" t="s">
         <v>72</v>
@@ -7326,7 +7326,7 @@
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" t="str">
         <f t="shared" si="0"/>
-        <v>['Batata baroa (gr)', 0.033, 0.166, 0.002]</v>
+        <v>[Batata baroa (gr), 0.033, 0.166, 0.002]</v>
       </c>
       <c r="B26" t="s">
         <v>57</v>
@@ -7344,7 +7344,7 @@
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="str">
         <f t="shared" si="0"/>
-        <v>['Batata doce (gr)', 0.029, 0.161, 0.001]</v>
+        <v>[Batata doce (gr), 0.029, 0.161, 0.001]</v>
       </c>
       <c r="B27" t="s">
         <v>58</v>
@@ -7362,7 +7362,7 @@
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" t="str">
         <f t="shared" si="0"/>
-        <v>['Batata inglesa (cozida) (gr)', 0.027, 0.105, 0]</v>
+        <v>[Batata inglesa (cozida) (gr), 0.027, 0.105, 0]</v>
       </c>
       <c r="B28" t="s">
         <v>59</v>
@@ -7380,7 +7380,7 @@
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" t="str">
         <f t="shared" si="0"/>
-        <v>['Batata inglesa (frita) (gr)', 0.095, 0.312, 0.131]</v>
+        <v>[Batata inglesa (frita) (gr), 0.095, 0.312, 0.131]</v>
       </c>
       <c r="B29" t="s">
         <v>60</v>
@@ -7398,7 +7398,7 @@
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="str">
         <f t="shared" si="0"/>
-        <v>['Batata inglesa (sauté) (gr)', 0.031, 0.123, 0.009]</v>
+        <v>[Batata inglesa (sauté) (gr), 0.031, 0.123, 0.009]</v>
       </c>
       <c r="B30" t="s">
         <v>61</v>
@@ -7416,7 +7416,7 @@
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="str">
         <f t="shared" si="0"/>
-        <v>['Bebida láctea de pêssego (gr)', 0.03, 0.066, 0.019]</v>
+        <v>[Bebida láctea de pêssego (gr), 0.03, 0.066, 0.019]</v>
       </c>
       <c r="B31" t="s">
         <v>142</v>
@@ -7434,7 +7434,7 @@
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="str">
         <f t="shared" si="0"/>
-        <v>['Biscoito de maisena doce (gr)', 0.175, 0.658, 0.12]</v>
+        <v>[Biscoito de maisena doce (gr), 0.175, 0.658, 0.12]</v>
       </c>
       <c r="B32" t="s">
         <v>44</v>
@@ -7452,7 +7452,7 @@
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" t="str">
         <f t="shared" si="0"/>
-        <v>['Biscoito de polvilho doce (gr)', 0.114, 0.705, 0.122]</v>
+        <v>[Biscoito de polvilho doce (gr), 0.114, 0.705, 0.122]</v>
       </c>
       <c r="B33" t="s">
         <v>62</v>
@@ -7470,7 +7470,7 @@
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" t="str">
         <f t="shared" si="0"/>
-        <v>['Biscoito salgado (cream cracker) (gr)', 0.187, 0.601, 0.144]</v>
+        <v>[Biscoito salgado (cream cracker) (gr), 0.187, 0.601, 0.144]</v>
       </c>
       <c r="B34" t="s">
         <v>45</v>
@@ -7488,7 +7488,7 @@
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" t="str">
         <f t="shared" si="0"/>
-        <v>['Bisteca de porco frita (gr)', 0.337, 0, 0.185]</v>
+        <v>[Bisteca de porco frita (gr), 0.337, 0, 0.185]</v>
       </c>
       <c r="B35" t="s">
         <v>136</v>
@@ -7506,7 +7506,7 @@
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" t="str">
         <f t="shared" si="0"/>
-        <v>['Bolo de Aipim (gr)', 0.104, 0.419, 0.127]</v>
+        <v>[Bolo de Aipim (gr), 0.104, 0.419, 0.127]</v>
       </c>
       <c r="B36" t="s">
         <v>46</v>
@@ -7524,7 +7524,7 @@
     <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" t="str">
         <f t="shared" si="0"/>
-        <v>['Bolo de Milho (gr)', 0.104, 0.395, 0.124]</v>
+        <v>[Bolo de Milho (gr), 0.104, 0.395, 0.124]</v>
       </c>
       <c r="B37" t="s">
         <v>47</v>
@@ -7542,7 +7542,7 @@
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" t="str">
         <f t="shared" si="0"/>
-        <v>['Camarão Rio Grande (gr)', 0.19, 0, 0.01]</v>
+        <v>[Camarão Rio Grande (gr), 0.19, 0, 0.01]</v>
       </c>
       <c r="B38" t="s">
         <v>97</v>
@@ -7560,7 +7560,7 @@
     <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" t="str">
         <f t="shared" si="0"/>
-        <v>['Capa de contra-filé com gordura (grelhada) (gr)', 0.307, 0, 0.2]</v>
+        <v>[Capa de contra-filé com gordura (grelhada) (gr), 0.307, 0, 0.2]</v>
       </c>
       <c r="B39" t="s">
         <v>105</v>
@@ -7578,7 +7578,7 @@
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" t="str">
         <f t="shared" si="0"/>
-        <v>['Capa de contra-file sem gordura (grelhada) (gr)', 0.351, 0, 0.1]</v>
+        <v>[Capa de contra-file sem gordura (grelhada) (gr), 0.351, 0, 0.1]</v>
       </c>
       <c r="B40" t="s">
         <v>106</v>
@@ -7596,7 +7596,7 @@
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" t="str">
         <f t="shared" si="0"/>
-        <v>['Castanha-de-caju (gr)', 0.221, 0.255, 0.463]</v>
+        <v>[Castanha-de-caju (gr), 0.221, 0.255, 0.463]</v>
       </c>
       <c r="B41" t="s">
         <v>173</v>
@@ -7614,7 +7614,7 @@
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" t="str">
         <f t="shared" si="0"/>
-        <v>['Charuto de repolho (gr)', 0.081, 0.089, 0.011]</v>
+        <v>[Charuto de repolho (gr), 0.081, 0.089, 0.011]</v>
       </c>
       <c r="B42" t="s">
         <v>162</v>
@@ -7632,7 +7632,7 @@
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" t="str">
         <f t="shared" si="0"/>
-        <v>['Clara de ovo (unid)', 3, 0, 0]</v>
+        <v>[Clara de ovo (unid), 3, 0, 0]</v>
       </c>
       <c r="B43" t="s">
         <v>35</v>
@@ -7650,7 +7650,7 @@
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" t="str">
         <f t="shared" si="0"/>
-        <v>['Coco (gr)', 0.05, 0.091, 0.42]</v>
+        <v>[Coco (gr), 0.05, 0.091, 0.42]</v>
       </c>
       <c r="B44" t="s">
         <v>174</v>
@@ -7668,7 +7668,7 @@
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" t="str">
         <f t="shared" si="0"/>
-        <v>['Contra-filé (grelhado) (gr)', 0.299, 0, 0.163]</v>
+        <v>[Contra-filé (grelhado) (gr), 0.299, 0, 0.163]</v>
       </c>
       <c r="B45" t="s">
         <v>108</v>
@@ -7686,7 +7686,7 @@
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" t="str">
         <f t="shared" si="0"/>
-        <v>['Contra-filé à milanesa (gr)', 0.221, 0.107, 0.24]</v>
+        <v>[Contra-filé à milanesa (gr), 0.221, 0.107, 0.24]</v>
       </c>
       <c r="B46" t="s">
         <v>107</v>
@@ -7704,7 +7704,7 @@
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" t="str">
         <f t="shared" si="0"/>
-        <v>['Contra-filé com gordura (grelhado) (gr)', 0.324, 0, 0.155]</v>
+        <v>[Contra-filé com gordura (grelhado) (gr), 0.324, 0, 0.155]</v>
       </c>
       <c r="B47" t="s">
         <v>109</v>
@@ -7722,7 +7722,7 @@
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" t="str">
         <f t="shared" si="0"/>
-        <v>['Costela de porco assada (gr)', 0.302, 0, 0.303]</v>
+        <v>[Costela de porco assada (gr), 0.302, 0, 0.303]</v>
       </c>
       <c r="B48" t="s">
         <v>137</v>
@@ -7740,7 +7740,7 @@
     <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" t="str">
         <f t="shared" si="0"/>
-        <v>['Coxa de Frango com pele (gr)', 0.285, 0.001, 0.104]</v>
+        <v>[Coxa de Frango com pele (gr), 0.285, 0.001, 0.104]</v>
       </c>
       <c r="B49" t="s">
         <v>124</v>
@@ -7758,7 +7758,7 @@
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" t="str">
         <f t="shared" si="0"/>
-        <v>['Coxa de Frango sem pele (gr)', 0.269, 0, 0.058]</v>
+        <v>[Coxa de Frango sem pele (gr), 0.269, 0, 0.058]</v>
       </c>
       <c r="B50" t="s">
         <v>125</v>
@@ -7776,7 +7776,7 @@
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" t="str">
         <f t="shared" si="0"/>
-        <v>['Coxão duro sem gordura (cozido) (gr)', 0.319, 0, 0.089]</v>
+        <v>[Coxão duro sem gordura (cozido) (gr), 0.319, 0, 0.089]</v>
       </c>
       <c r="B51" t="s">
         <v>110</v>
@@ -7794,7 +7794,7 @@
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" t="str">
         <f t="shared" si="0"/>
-        <v>['Coxão mole sem gordura (cozido) (gr)', 0.324, 0, 0.089]</v>
+        <v>[Coxão mole sem gordura (cozido) (gr), 0.324, 0, 0.089]</v>
       </c>
       <c r="B52" t="s">
         <v>111</v>
@@ -7812,7 +7812,7 @@
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" t="str">
         <f t="shared" si="0"/>
-        <v>['Creatina (gr)', 1, 0, 0]</v>
+        <v>[Creatina (gr), 1, 0, 0]</v>
       </c>
       <c r="B53" t="s">
         <v>38</v>
@@ -7830,7 +7830,7 @@
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" t="str">
         <f t="shared" si="0"/>
-        <v>['Creme de Leite (gr)', 0.021, 0.039, 0.225]</v>
+        <v>[Creme de Leite (gr), 0.021, 0.039, 0.225]</v>
       </c>
       <c r="B54" t="s">
         <v>143</v>
@@ -7848,7 +7848,7 @@
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" t="str">
         <f t="shared" si="0"/>
-        <v>['Cupim (assado) (gr)', 0.286, 0, 0.23]</v>
+        <v>[Cupim (assado) (gr), 0.286, 0, 0.23]</v>
       </c>
       <c r="B55" t="s">
         <v>112</v>
@@ -7866,7 +7866,7 @@
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" t="str">
         <f t="shared" si="0"/>
-        <v>['Farinha de milho (gr)', 0.171, 0.692, 0.015]</v>
+        <v>[Farinha de milho (gr), 0.171, 0.692, 0.015]</v>
       </c>
       <c r="B56" t="s">
         <v>48</v>
@@ -7884,7 +7884,7 @@
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" t="str">
         <f t="shared" si="0"/>
-        <v>['Farinha de trigo (gr)', 0.192, 0.657, 0.014]</v>
+        <v>[Farinha de trigo (gr), 0.192, 0.657, 0.014]</v>
       </c>
       <c r="B57" t="s">
         <v>49</v>
@@ -7902,7 +7902,7 @@
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" t="str">
         <f t="shared" si="0"/>
-        <v>['Fécula de mandioca (gr)', 0.106, 0.71, 0.003]</v>
+        <v>[Fécula de mandioca (gr), 0.106, 0.71, 0.003]</v>
       </c>
       <c r="B58" t="s">
         <v>63</v>
@@ -7920,7 +7920,7 @@
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" t="str">
         <f t="shared" si="0"/>
-        <v>['Feijão carioca (gr)', 0.065, 0.119, 0.005]</v>
+        <v>[Feijão carioca (gr), 0.065, 0.119, 0.005]</v>
       </c>
       <c r="B59" t="s">
         <v>166</v>
@@ -7938,7 +7938,7 @@
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" t="str">
         <f t="shared" si="0"/>
-        <v>['Feijão fradinho (gr)', 0.068, 0.118, 0.006]</v>
+        <v>[Feijão fradinho (gr), 0.068, 0.118, 0.006]</v>
       </c>
       <c r="B60" t="s">
         <v>167</v>
@@ -7956,7 +7956,7 @@
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" t="str">
         <f t="shared" si="0"/>
-        <v>['Feijão preto (gr)', 0.063, 0.123, 0.005]</v>
+        <v>[Feijão preto (gr), 0.063, 0.123, 0.005]</v>
       </c>
       <c r="B61" t="s">
         <v>168</v>
@@ -7974,7 +7974,7 @@
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" t="str">
         <f t="shared" si="0"/>
-        <v>['Feijão roxo/vermelho (gr)', 0.073, 0.113, 0.005]</v>
+        <v>[Feijão roxo/vermelho (gr), 0.073, 0.113, 0.005]</v>
       </c>
       <c r="B62" t="s">
         <v>169</v>
@@ -7992,7 +7992,7 @@
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" t="str">
         <f t="shared" si="0"/>
-        <v>['Feijoada (gr)', 0.102, 0.102, 0.065]</v>
+        <v>[Feijoada (gr), 0.102, 0.102, 0.065]</v>
       </c>
       <c r="B63" t="s">
         <v>163</v>
@@ -8010,7 +8010,7 @@
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" t="str">
         <f t="shared" si="0"/>
-        <v>['Fígado (grelhado) (gr)', 0.304, 0.037, 0.09]</v>
+        <v>[Fígado (grelhado) (gr), 0.304, 0.037, 0.09]</v>
       </c>
       <c r="B64" t="s">
         <v>113</v>
@@ -8028,7 +8028,7 @@
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" t="str">
         <f t="shared" si="0"/>
-        <v>['Filé de Peito de Frango (cozido) (gr)', 0.315, 0, 0.032]</v>
+        <v>[Filé de Peito de Frango (cozido) (gr), 0.315, 0, 0.032]</v>
       </c>
       <c r="B65" t="s">
         <v>127</v>
@@ -8045,8 +8045,8 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" t="str">
-        <f t="shared" ref="A66:A129" si="1">"["&amp;"'"&amp;TRIM(B66)&amp;"'"&amp;", "&amp;C66&amp;", "&amp;D66&amp;", "&amp;E66&amp;"]"</f>
-        <v>['Filé de Peito de Frango (grelhado) (gr)', 0.32, 0, 0.025]</v>
+        <f t="shared" ref="A66:A129" si="1">"["&amp;TRIM(B66)&amp;", "&amp;C66&amp;", "&amp;D66&amp;", "&amp;E66&amp;"]"</f>
+        <v>[Filé de Peito de Frango (grelhado) (gr), 0.32, 0, 0.025]</v>
       </c>
       <c r="B66" t="s">
         <v>128</v>
@@ -8064,7 +8064,7 @@
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" t="str">
         <f t="shared" si="1"/>
-        <v>['Filé de Peito de Frango à milanesa (gr)', 0.294, 0.066, 0.078]</v>
+        <v>[Filé de Peito de Frango à milanesa (gr), 0.294, 0.066, 0.078]</v>
       </c>
       <c r="B67" t="s">
         <v>126</v>
@@ -8082,7 +8082,7 @@
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" t="str">
         <f t="shared" si="1"/>
-        <v>['Filé de Salmão com pele (grelhado) (gr)', 0.239, 0, 0.14]</v>
+        <v>[Filé de Salmão com pele (grelhado) (gr), 0.239, 0, 0.14]</v>
       </c>
       <c r="B68" t="s">
         <v>99</v>
@@ -8100,7 +8100,7 @@
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" t="str">
         <f t="shared" si="1"/>
-        <v>['File de Salmão sem pele (grelhado) (gr)', 0.261, 0, 0.145]</v>
+        <v>[File de Salmão sem pele (grelhado) (gr), 0.261, 0, 0.145]</v>
       </c>
       <c r="B69" t="s">
         <v>100</v>
@@ -8118,7 +8118,7 @@
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" t="str">
         <f t="shared" si="1"/>
-        <v>['Filé mingnon sem gordura (grelhado) (gr)', 0.328, 0, 0.088]</v>
+        <v>[Filé mingnon sem gordura (grelhado) (gr), 0.328, 0, 0.088]</v>
       </c>
       <c r="B70" t="s">
         <v>114</v>
@@ -8136,7 +8136,7 @@
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" t="str">
         <f t="shared" si="1"/>
-        <v>['Fraldinha com gordura (cozida) (gr)', 0.242, 0, 0.26]</v>
+        <v>[Fraldinha com gordura (cozida) (gr), 0.242, 0, 0.26]</v>
       </c>
       <c r="B71" t="s">
         <v>115</v>
@@ -8154,7 +8154,7 @@
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" t="str">
         <f t="shared" si="1"/>
-        <v>['Gergelim (gr)', 0.239, 0.189, 0.504]</v>
+        <v>[Gergelim (gr), 0.239, 0.189, 0.504]</v>
       </c>
       <c r="B72" t="s">
         <v>175</v>
@@ -8172,7 +8172,7 @@
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" t="str">
         <f t="shared" si="1"/>
-        <v>['Goiaba branca (gr)', 0.025, 0.109, 0.005]</v>
+        <v>[Goiaba branca (gr), 0.025, 0.109, 0.005]</v>
       </c>
       <c r="B73" t="s">
         <v>73</v>
@@ -8190,7 +8190,7 @@
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" t="str">
         <f t="shared" si="1"/>
-        <v>['Goiaba vermelha (gr)', 0.027, 0.114, 0.004]</v>
+        <v>[Goiaba vermelha (gr), 0.027, 0.114, 0.004]</v>
       </c>
       <c r="B74" t="s">
         <v>74</v>
@@ -8208,7 +8208,7 @@
     <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" t="str">
         <f t="shared" si="1"/>
-        <v>['Granola Diet (gr)', 0.1, 0.6, 0.1]</v>
+        <v>[Granola Diet (gr), 0.1, 0.6, 0.1]</v>
       </c>
       <c r="B75" t="s">
         <v>180</v>
@@ -8226,7 +8226,7 @@
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" t="str">
         <f t="shared" si="1"/>
-        <v>['Iogurte natural (gr)', 0.043, 0.017, 0.03]</v>
+        <v>[Iogurte natural (gr), 0.043, 0.017, 0.03]</v>
       </c>
       <c r="B76" t="s">
         <v>144</v>
@@ -8244,7 +8244,7 @@
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" t="str">
         <f t="shared" si="1"/>
-        <v>['Iogurte natural desnatado (gr)', 0.045, 0.051, 0.003]</v>
+        <v>[Iogurte natural desnatado (gr), 0.045, 0.051, 0.003]</v>
       </c>
       <c r="B77" t="s">
         <v>145</v>
@@ -8262,7 +8262,7 @@
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" t="str">
         <f t="shared" si="1"/>
-        <v>['Kiwi (gr)', 0.027, 0.101, 0.006]</v>
+        <v>[Kiwi (gr), 0.027, 0.101, 0.006]</v>
       </c>
       <c r="B78" t="s">
         <v>75</v>
@@ -8280,7 +8280,7 @@
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" t="str">
         <f t="shared" si="1"/>
-        <v>['Lagarto (cozido) (gr)', 0.329, 0, 0.091]</v>
+        <v>[Lagarto (cozido) (gr), 0.329, 0, 0.091]</v>
       </c>
       <c r="B79" t="s">
         <v>116</v>
@@ -8298,7 +8298,7 @@
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" t="str">
         <f t="shared" si="1"/>
-        <v>['Laranja baía (suco) (ml)', 0.018, 0.076, 0]</v>
+        <v>[Laranja baía (suco) (ml), 0.018, 0.076, 0]</v>
       </c>
       <c r="B80" t="s">
         <v>76</v>
@@ -8316,7 +8316,7 @@
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" t="str">
         <f t="shared" si="1"/>
-        <v>['Laranja da terra (suco) (ml)', 0.019, 0.084, 0.001]</v>
+        <v>[Laranja da terra (suco) (ml), 0.019, 0.084, 0.001]</v>
       </c>
       <c r="B81" t="s">
         <v>77</v>
@@ -8334,7 +8334,7 @@
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" t="str">
         <f t="shared" si="1"/>
-        <v>['Laranja lima (suco) (ml)', 0.018, 0.08, 0.001]</v>
+        <v>[Laranja lima (suco) (ml), 0.018, 0.08, 0.001]</v>
       </c>
       <c r="B82" t="s">
         <v>78</v>
@@ -8352,7 +8352,7 @@
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" t="str">
         <f t="shared" si="1"/>
-        <v>['Leite condensado (gr)', 0.148, 0.499, 0.067]</v>
+        <v>[Leite condensado (gr), 0.148, 0.499, 0.067]</v>
       </c>
       <c r="B83" t="s">
         <v>146</v>
@@ -8370,7 +8370,7 @@
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" t="str">
         <f t="shared" si="1"/>
-        <v>['Leite em pó desnatado (gr)', 0.413, 0.464, 0.009]</v>
+        <v>[Leite em pó desnatado (gr), 0.413, 0.464, 0.009]</v>
       </c>
       <c r="B84" t="s">
         <v>147</v>
@@ -8388,7 +8388,7 @@
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" t="str">
         <f t="shared" si="1"/>
-        <v>['Lentilha cozida (gr)', 0.083, 0.143, 0.005]</v>
+        <v>[Lentilha cozida (gr), 0.083, 0.143, 0.005]</v>
       </c>
       <c r="B85" t="s">
         <v>170</v>
@@ -8406,7 +8406,7 @@
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" t="str">
         <f t="shared" si="1"/>
-        <v>['Lingüiça de Frango (frita) (gr)', 0.183, 0, 0.185]</v>
+        <v>[Lingüiça de Frango (frita) (gr), 0.183, 0, 0.185]</v>
       </c>
       <c r="B86" t="s">
         <v>131</v>
@@ -8424,7 +8424,7 @@
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" t="str">
         <f t="shared" si="1"/>
-        <v>['Lingüiça de frango (grelhada) (gr)', 0.182, 0, 0.184]</v>
+        <v>[Lingüiça de frango (grelhada) (gr), 0.182, 0, 0.184]</v>
       </c>
       <c r="B87" t="s">
         <v>132</v>
@@ -8442,7 +8442,7 @@
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" t="str">
         <f t="shared" si="1"/>
-        <v>['Lingüiça de porco (frita) (gr)', 0.205, 0, 0.213]</v>
+        <v>[Lingüiça de porco (frita) (gr), 0.205, 0, 0.213]</v>
       </c>
       <c r="B88" t="s">
         <v>133</v>
@@ -8460,7 +8460,7 @@
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" t="str">
         <f t="shared" si="1"/>
-        <v>['Lingüiça de porco (grelhada) (gr)', 0.232, 0, 0.219]</v>
+        <v>[Lingüiça de porco (grelhada) (gr), 0.232, 0, 0.219]</v>
       </c>
       <c r="B89" t="s">
         <v>134</v>
@@ -8478,7 +8478,7 @@
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" t="str">
         <f t="shared" si="1"/>
-        <v>['Linhaça (gr)', 0.195, 0.379, 0.323]</v>
+        <v>[Linhaça (gr), 0.195, 0.379, 0.323]</v>
       </c>
       <c r="B90" t="s">
         <v>176</v>
@@ -8496,7 +8496,7 @@
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" t="str">
         <f t="shared" si="1"/>
-        <v>['Lombo de porco assado (gr)', 0.357, 0, 0.064]</v>
+        <v>[Lombo de porco assado (gr), 0.357, 0, 0.064]</v>
       </c>
       <c r="B91" t="s">
         <v>138</v>
@@ -8514,7 +8514,7 @@
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" t="str">
         <f t="shared" si="1"/>
-        <v>['Maçã Argentina (gr)', 0.023, 0.145, 0.002]</v>
+        <v>[Maçã Argentina (gr), 0.023, 0.145, 0.002]</v>
       </c>
       <c r="B92" t="s">
         <v>79</v>
@@ -8532,7 +8532,7 @@
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" t="str">
         <f t="shared" si="1"/>
-        <v>['Macarrão (gr)', 0.197, 0.682, 0.013]</v>
+        <v>[Macarrão (gr), 0.197, 0.682, 0.013]</v>
       </c>
       <c r="B93" t="s">
         <v>50</v>
@@ -8550,7 +8550,7 @@
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" t="str">
         <f t="shared" si="1"/>
-        <v>['Maionese com ovos (gr)', 0.016, 0.069, 0.305]</v>
+        <v>[Maionese com ovos (gr), 0.016, 0.069, 0.305]</v>
       </c>
       <c r="B94" t="s">
         <v>159</v>
@@ -8568,7 +8568,7 @@
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" t="str">
         <f t="shared" si="1"/>
-        <v>['Mamão Formosa (gr)', 0.022, 0.101, 0.001]</v>
+        <v>[Mamão Formosa (gr), 0.022, 0.101, 0.001]</v>
       </c>
       <c r="B95" t="s">
         <v>80</v>
@@ -8586,7 +8586,7 @@
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" t="str">
         <f t="shared" si="1"/>
-        <v>['Mamão Papaia (gr)', 0.018, 0.091, 0.001]</v>
+        <v>[Mamão Papaia (gr), 0.018, 0.091, 0.001]</v>
       </c>
       <c r="B96" t="s">
         <v>81</v>
@@ -8604,7 +8604,7 @@
     <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" t="str">
         <f t="shared" si="1"/>
-        <v>['Maminha (grelhada) (gr)', 0.307, 0, 0.024]</v>
+        <v>[Maminha (grelhada) (gr), 0.307, 0, 0.024]</v>
       </c>
       <c r="B97" t="s">
         <v>117</v>
@@ -8622,7 +8622,7 @@
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" t="str">
         <f t="shared" si="1"/>
-        <v>['Mandioca (cozida) (gr)', 0.044, 0.263, 0.003]</v>
+        <v>[Mandioca (cozida) (gr), 0.044, 0.263, 0.003]</v>
       </c>
       <c r="B98" t="s">
         <v>64</v>
@@ -8640,7 +8640,7 @@
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" t="str">
         <f t="shared" si="1"/>
-        <v>['Mandioca (frita) (gr)', 0.077, 0.44, 0.112]</v>
+        <v>[Mandioca (frita) (gr), 0.077, 0.44, 0.112]</v>
       </c>
       <c r="B99" t="s">
         <v>65</v>
@@ -8658,7 +8658,7 @@
     <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" t="str">
         <f t="shared" si="1"/>
-        <v>['Manteiga com sal (gr)', 0.004, 0.001, 0.824]</v>
+        <v>[Manteiga com sal (gr), 0.004, 0.001, 0.824]</v>
       </c>
       <c r="B100" t="s">
         <v>92</v>
@@ -8676,7 +8676,7 @@
     <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" t="str">
         <f t="shared" si="1"/>
-        <v>['Manteiga sem sal (gr)', 0.004, 0, 0.86]</v>
+        <v>[Manteiga sem sal (gr), 0.004, 0, 0.86]</v>
       </c>
       <c r="B101" t="s">
         <v>93</v>
@@ -8694,7 +8694,7 @@
     <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" t="str">
         <f t="shared" si="1"/>
-        <v>['Melão (gr)', 0.016, 0.066, 0]</v>
+        <v>[Melão (gr), 0.016, 0.066, 0]</v>
       </c>
       <c r="B102" t="s">
         <v>82</v>
@@ -8712,7 +8712,7 @@
     <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" t="str">
         <f t="shared" si="1"/>
-        <v>['Milho verde (gr)', 0.053, 0.15, 0.024]</v>
+        <v>[Milho verde (gr), 0.053, 0.15, 0.024]</v>
       </c>
       <c r="B103" t="s">
         <v>51</v>
@@ -8730,7 +8730,7 @@
     <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" t="str">
         <f t="shared" si="1"/>
-        <v>['Miolo de alcatra sem gordura (grelhado) (gr)', 0.319, 0, 0.116]</v>
+        <v>[Miolo de alcatra sem gordura (grelhado) (gr), 0.319, 0, 0.116]</v>
       </c>
       <c r="B104" t="s">
         <v>118</v>
@@ -8748,7 +8748,7 @@
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" t="str">
         <f t="shared" si="1"/>
-        <v>['Morango (gr)', 0.018, 0.06, 0.003]</v>
+        <v>[Morango (gr), 0.018, 0.06, 0.003]</v>
       </c>
       <c r="B105" t="s">
         <v>83</v>
@@ -8766,7 +8766,7 @@
     <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" t="str">
         <f t="shared" si="1"/>
-        <v>['Mortadela (gr)', 0.127, 0.051, 0.216]</v>
+        <v>[Mortadela (gr), 0.127, 0.051, 0.216]</v>
       </c>
       <c r="B106" t="s">
         <v>135</v>
@@ -8784,7 +8784,7 @@
     <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" t="str">
         <f t="shared" si="1"/>
-        <v>['Músculo sem gordura (cozido) (gr)', 0.312, 0, 0.067]</v>
+        <v>[Músculo sem gordura (cozido) (gr), 0.312, 0, 0.067]</v>
       </c>
       <c r="B107" t="s">
         <v>119</v>
@@ -8802,7 +8802,7 @@
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" t="str">
         <f t="shared" si="1"/>
-        <v>['Noz (gr)', 0.163, 0.161, 0.594]</v>
+        <v>[Noz (gr), 0.163, 0.161, 0.594]</v>
       </c>
       <c r="B108" t="s">
         <v>178</v>
@@ -8820,7 +8820,7 @@
     <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" t="str">
         <f t="shared" si="1"/>
-        <v>['Omelete de queijo (gr)', 0.157, 0.004, 0.22]</v>
+        <v>[Omelete de queijo (gr), 0.157, 0.004, 0.22]</v>
       </c>
       <c r="B109" t="s">
         <v>155</v>
@@ -8838,7 +8838,7 @@
     <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" t="str">
         <f t="shared" si="1"/>
-        <v>['Ovo (unid)', 6333, 0.666, 5666]</v>
+        <v>[Ovo (unid), 6333, 0.666, 5666]</v>
       </c>
       <c r="B110" t="s">
         <v>34</v>
@@ -8849,14 +8849,14 @@
       <c r="D110" t="s">
         <v>448</v>
       </c>
-      <c r="E110" s="38">
+      <c r="E110" s="23">
         <v>5666</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" t="str">
         <f t="shared" si="1"/>
-        <v>['Ovo de codorna (gr)', 0.138, 0.007, 0.127]</v>
+        <v>[Ovo de codorna (gr), 0.138, 0.007, 0.127]</v>
       </c>
       <c r="B111" t="s">
         <v>156</v>
@@ -8874,7 +8874,7 @@
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" t="str">
         <f t="shared" si="1"/>
-        <v>['Paçoca (gr)', 0.225, 0.458, 0.261]</v>
+        <v>[Paçoca (gr), 0.225, 0.458, 0.261]</v>
       </c>
       <c r="B112" t="s">
         <v>171</v>
@@ -8892,7 +8892,7 @@
     <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" t="str">
         <f t="shared" si="1"/>
-        <v>['Paleta sem gordura (cozida) (gr)', 0.297, 0, 0.074]</v>
+        <v>[Paleta sem gordura (cozida) (gr), 0.297, 0, 0.074]</v>
       </c>
       <c r="B113" t="s">
         <v>120</v>
@@ -8910,7 +8910,7 @@
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" t="str">
         <f t="shared" si="1"/>
-        <v>['Pão de forma integral (gr)', 0.156, 0.437, 0.037]</v>
+        <v>[Pão de forma integral (gr), 0.156, 0.437, 0.037]</v>
       </c>
       <c r="B114" t="s">
         <v>52</v>
@@ -8928,7 +8928,7 @@
     <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" t="str">
         <f t="shared" si="1"/>
-        <v>['Pão de queijo (gr)', 0.094, 0.3, 0.246]</v>
+        <v>[Pão de queijo (gr), 0.094, 0.3, 0.246]</v>
       </c>
       <c r="B115" t="s">
         <v>66</v>
@@ -8946,7 +8946,7 @@
     <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" t="str">
         <f t="shared" si="1"/>
-        <v>['Pão frances (pão de sal) (unid)', 5.5, 26, 3]</v>
+        <v>[Pão frances (pão de sal) (unid), 5.5, 26, 3]</v>
       </c>
       <c r="B116" t="s">
         <v>39</v>
@@ -8964,7 +8964,7 @@
     <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" t="str">
         <f t="shared" si="1"/>
-        <v>['Pasta de amendoim (gr)', 0.25, 0.2, 0.45]</v>
+        <v>[Pasta de amendoim (gr), 0.25, 0.2, 0.45]</v>
       </c>
       <c r="B117" t="s">
         <v>36</v>
@@ -8982,7 +8982,7 @@
     <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" t="str">
         <f t="shared" si="1"/>
-        <v>['Patinho sem gordura (grelhado) (gr)', 0.359, 0, 0.073]</v>
+        <v>[Patinho sem gordura (grelhado) (gr), 0.359, 0, 0.073]</v>
       </c>
       <c r="B118" t="s">
         <v>121</v>
@@ -9000,7 +9000,7 @@
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" t="str">
         <f t="shared" si="1"/>
-        <v>['Pêra Park (gr)', 0.022, 0.141, 0.002]</v>
+        <v>[Pêra Park (gr), 0.022, 0.141, 0.002]</v>
       </c>
       <c r="B119" t="s">
         <v>84</v>
@@ -9018,7 +9018,7 @@
     <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" t="str">
         <f t="shared" si="1"/>
-        <v>['Pêra Williams (gr)', 0.024, 0.123, 0.001]</v>
+        <v>[Pêra Williams (gr), 0.024, 0.123, 0.001]</v>
       </c>
       <c r="B120" t="s">
         <v>85</v>
@@ -9036,7 +9036,7 @@
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" t="str">
         <f t="shared" si="1"/>
-        <v>['Pescada Branca (frita) (gr)', 0.274, 0, 0.118]</v>
+        <v>[Pescada Branca (frita) (gr), 0.274, 0, 0.118]</v>
       </c>
       <c r="B121" t="s">
         <v>98</v>
@@ -9054,7 +9054,7 @@
     <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" t="str">
         <f t="shared" si="1"/>
-        <v>['Picanha com gordura (grelhada) (gr)', 0.264, 0, 0.195]</v>
+        <v>[Picanha com gordura (grelhada) (gr), 0.264, 0, 0.195]</v>
       </c>
       <c r="B122" t="s">
         <v>122</v>
@@ -9072,7 +9072,7 @@
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" t="str">
         <f t="shared" si="1"/>
-        <v>['Picanha sem gordura (grelhada) (gr)', 0.319, 0, 0.113]</v>
+        <v>[Picanha sem gordura (grelhada) (gr), 0.319, 0, 0.113]</v>
       </c>
       <c r="B123" t="s">
         <v>123</v>
@@ -9090,7 +9090,7 @@
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" t="str">
         <f t="shared" si="1"/>
-        <v>['Pinhão (gr)', 0.085, 0.384, 0.007]</v>
+        <v>[Pinhão (gr), 0.085, 0.384, 0.007]</v>
       </c>
       <c r="B124" t="s">
         <v>177</v>
@@ -9108,7 +9108,7 @@
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" t="str">
         <f t="shared" si="1"/>
-        <v>['Pipoca sem sal (com óleo de soja) (gr)', 0.187, 0.615, 0.159]</v>
+        <v>[Pipoca sem sal (com óleo de soja) (gr), 0.187, 0.615, 0.159]</v>
       </c>
       <c r="B125" t="s">
         <v>53</v>
@@ -9126,7 +9126,7 @@
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" t="str">
         <f t="shared" si="1"/>
-        <v>['Polvilho (gr)', 0.112, 0.759, 0]</v>
+        <v>[Polvilho (gr), 0.112, 0.759, 0]</v>
       </c>
       <c r="B126" t="s">
         <v>67</v>
@@ -9144,7 +9144,7 @@
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" t="str">
         <f t="shared" si="1"/>
-        <v>['Presunto com capa de gordura (gr)', 0.146, 0.012, 0.068]</v>
+        <v>[Presunto com capa de gordura (gr), 0.146, 0.012, 0.068]</v>
       </c>
       <c r="B127" t="s">
         <v>139</v>
@@ -9162,7 +9162,7 @@
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" t="str">
         <f t="shared" si="1"/>
-        <v>['Presunto sem capa de gordura (gr)', 0.146, 0.019, 0.027]</v>
+        <v>[Presunto sem capa de gordura (gr), 0.146, 0.019, 0.027]</v>
       </c>
       <c r="B128" t="s">
         <v>140</v>
@@ -9180,7 +9180,7 @@
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" t="str">
         <f t="shared" si="1"/>
-        <v>['Queijo minas frescal (gr)', 0.178, 0.028, 0.202]</v>
+        <v>[Queijo minas frescal (gr), 0.178, 0.028, 0.202]</v>
       </c>
       <c r="B129" t="s">
         <v>148</v>
@@ -9197,8 +9197,8 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" t="str">
-        <f t="shared" ref="A130:A147" si="2">"["&amp;"'"&amp;TRIM(B130)&amp;"'"&amp;", "&amp;C130&amp;", "&amp;D130&amp;", "&amp;E130&amp;"]"</f>
-        <v>['Queijo minas meia cura (gr)', 0.216, 0.031, 0.246]</v>
+        <f t="shared" ref="A130:A147" si="2">"["&amp;TRIM(B130)&amp;", "&amp;C130&amp;", "&amp;D130&amp;", "&amp;E130&amp;"]"</f>
+        <v>[Queijo minas meia cura (gr), 0.216, 0.031, 0.246]</v>
       </c>
       <c r="B130" t="s">
         <v>149</v>
@@ -9216,7 +9216,7 @@
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" t="str">
         <f t="shared" si="2"/>
-        <v>['Queijo mozarela (gr)', 0.23, 0.027, 0.252]</v>
+        <v>[Queijo mozarela (gr), 0.23, 0.027, 0.252]</v>
       </c>
       <c r="B131" t="s">
         <v>150</v>
@@ -9234,7 +9234,7 @@
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" t="str">
         <f t="shared" si="2"/>
-        <v>['Queijo parmesão (gr)', 0.358, 0.015, 0.335]</v>
+        <v>[Queijo parmesão (gr), 0.358, 0.015, 0.335]</v>
       </c>
       <c r="B132" t="s">
         <v>151</v>
@@ -9252,7 +9252,7 @@
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" t="str">
         <f t="shared" si="2"/>
-        <v>['Queijo prato (gr)', 0.229, 0.016, 0.291]</v>
+        <v>[Queijo prato (gr), 0.229, 0.016, 0.291]</v>
       </c>
       <c r="B133" t="s">
         <v>152</v>
@@ -9270,7 +9270,7 @@
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" t="str">
         <f t="shared" si="2"/>
-        <v>['Requeijão cremoso (gr)', 0.099, 0.021, 0.234]</v>
+        <v>[Requeijão cremoso (gr), 0.099, 0.021, 0.234]</v>
       </c>
       <c r="B134" t="s">
         <v>153</v>
@@ -9288,7 +9288,7 @@
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" t="str">
         <f t="shared" si="2"/>
-        <v>['Ricota (gr)', 0.131, 0.033, 0.081]</v>
+        <v>[Ricota (gr), 0.131, 0.033, 0.081]</v>
       </c>
       <c r="B135" t="s">
         <v>154</v>
@@ -9306,7 +9306,7 @@
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" t="str">
         <f t="shared" si="2"/>
-        <v>['Salada Verde (gr)', 0, 0, 0]</v>
+        <v>[Salada Verde (gr), 0, 0, 0]</v>
       </c>
       <c r="B136" t="s">
         <v>179</v>
@@ -9324,7 +9324,7 @@
     <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" t="str">
         <f t="shared" si="2"/>
-        <v>['Salame (gr)', 0.262, 0.025, 0.306]</v>
+        <v>[Salame (gr), 0.262, 0.025, 0.306]</v>
       </c>
       <c r="B137" t="s">
         <v>141</v>
@@ -9342,7 +9342,7 @@
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" t="str">
         <f t="shared" si="2"/>
-        <v>['Sardinha (assada) (gr)', 0.322, 0, 0.03]</v>
+        <v>[Sardinha (assada) (gr), 0.322, 0, 0.03]</v>
       </c>
       <c r="B138" t="s">
         <v>101</v>
@@ -9360,7 +9360,7 @@
     <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" t="str">
         <f t="shared" si="2"/>
-        <v>['Sardinha (conserva em óleo) (gr)', 0.159, 0, 0.24]</v>
+        <v>[Sardinha (conserva em óleo) (gr), 0.159, 0, 0.24]</v>
       </c>
       <c r="B139" t="s">
         <v>102</v>
@@ -9378,7 +9378,7 @@
     <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" t="str">
         <f t="shared" si="2"/>
-        <v>['Sobrecoxa de Frango com pele (assada) (gr)', 0.287, 0, 0.152]</v>
+        <v>[Sobrecoxa de Frango com pele (assada) (gr), 0.287, 0, 0.152]</v>
       </c>
       <c r="B140" t="s">
         <v>129</v>
@@ -9396,7 +9396,7 @@
     <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" t="str">
         <f t="shared" si="2"/>
-        <v>['Sobrecoxa de Frango som pele (assada) (gr)', 0.292, 0, 0.12]</v>
+        <v>[Sobrecoxa de Frango som pele (assada) (gr), 0.292, 0, 0.12]</v>
       </c>
       <c r="B141" t="s">
         <v>130</v>
@@ -9414,7 +9414,7 @@
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" t="str">
         <f t="shared" si="2"/>
-        <v>['Suco de uva concentrado (gr)', 0.018, 0.129, 0]</v>
+        <v>[Suco de uva concentrado (gr), 0.018, 0.129, 0]</v>
       </c>
       <c r="B142" t="s">
         <v>89</v>
@@ -9432,7 +9432,7 @@
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" t="str">
         <f t="shared" si="2"/>
-        <v>['Tangerina Poncã (gr)', 0.02, 0.084, 0.001]</v>
+        <v>[Tangerina Poncã (gr), 0.02, 0.084, 0.001]</v>
       </c>
       <c r="B143" t="s">
         <v>86</v>
@@ -9450,7 +9450,7 @@
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" t="str">
         <f t="shared" si="2"/>
-        <v>['Tapioca com manteiga (gr)', 0.08, 0.556, 0.109]</v>
+        <v>[Tapioca com manteiga (gr), 0.08, 0.556, 0.109]</v>
       </c>
       <c r="B144" t="s">
         <v>164</v>
@@ -9468,7 +9468,7 @@
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" t="str">
         <f t="shared" si="2"/>
-        <v>['Uva Itália (gr)', 0.024, 0.119, 0.002]</v>
+        <v>[Uva Itália (gr), 0.024, 0.119, 0.002]</v>
       </c>
       <c r="B145" t="s">
         <v>87</v>
@@ -9486,7 +9486,7 @@
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" t="str">
         <f t="shared" si="2"/>
-        <v>['Uva Rubi (gr)', 0.022, 0.111, 0.002]</v>
+        <v>[Uva Rubi (gr), 0.022, 0.111, 0.002]</v>
       </c>
       <c r="B146" t="s">
         <v>88</v>
@@ -9504,7 +9504,7 @@
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" t="str">
         <f t="shared" si="2"/>
-        <v>['Whey 80% (gr)', 0.8, 0.066, 0]</v>
+        <v>[Whey 80% (gr), 0.8, 0.066, 0]</v>
       </c>
       <c r="B147" t="s">
         <v>37</v>
